--- a/app/src/main/res/raw/modeltest_v1.xlsx
+++ b/app/src/main/res/raw/modeltest_v1.xlsx
@@ -1,18 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siva.penke/projects/testprep/app/src/main/res/raw/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="modeltest1" sheetId="1" r:id="rId1"/>
     <sheet name="modeltest2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2508" uniqueCount="926">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2822" uniqueCount="930">
   <si>
     <t>EXAM</t>
   </si>
@@ -2826,11 +2837,23 @@
   <si>
     <t>Difficulty</t>
   </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2882,7 +2905,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2892,24 +2915,35 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2931,6 +2965,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3211,19 +3246,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N158"/>
+  <dimension ref="A1:N160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="62" customWidth="1"/>
-    <col min="8" max="8" width="30.5703125" customWidth="1"/>
-    <col min="9" max="9" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="87.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3267,7 +3304,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -3292,7 +3329,9 @@
       <c r="H2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="5"/>
+      <c r="I2" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J2" s="5" t="s">
         <v>17</v>
       </c>
@@ -3307,7 +3346,7 @@
       </c>
       <c r="N2" s="10"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -3332,7 +3371,9 @@
       <c r="H3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="5"/>
+      <c r="I3" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J3" s="5" t="s">
         <v>24</v>
       </c>
@@ -3347,7 +3388,7 @@
       </c>
       <c r="N3" s="10"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -3372,7 +3413,9 @@
       <c r="H4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="5"/>
+      <c r="I4" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J4" s="5" t="s">
         <v>30</v>
       </c>
@@ -3387,7 +3430,7 @@
       </c>
       <c r="N4" s="10"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -3412,7 +3455,9 @@
       <c r="H5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="5"/>
+      <c r="I5" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J5" s="5" t="s">
         <v>37</v>
       </c>
@@ -3427,7 +3472,7 @@
       </c>
       <c r="N5" s="10"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -3452,7 +3497,9 @@
       <c r="H6" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="5"/>
+      <c r="I6" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J6" s="5" t="s">
         <v>43</v>
       </c>
@@ -3467,7 +3514,7 @@
       </c>
       <c r="N6" s="10"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -3492,7 +3539,9 @@
       <c r="H7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="5"/>
+      <c r="I7" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J7" s="5" t="s">
         <v>49</v>
       </c>
@@ -3507,7 +3556,7 @@
       </c>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -3532,7 +3581,9 @@
       <c r="H8" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="5"/>
+      <c r="I8" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J8" s="5" t="s">
         <v>56</v>
       </c>
@@ -3547,7 +3598,7 @@
       </c>
       <c r="N8" s="10"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -3572,7 +3623,9 @@
       <c r="H9" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="5"/>
+      <c r="I9" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J9" s="5" t="s">
         <v>59</v>
       </c>
@@ -3587,7 +3640,7 @@
       </c>
       <c r="N9" s="10"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -3612,7 +3665,9 @@
       <c r="H10" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I10" s="5"/>
+      <c r="I10" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J10" s="5" t="s">
         <v>66</v>
       </c>
@@ -3627,7 +3682,7 @@
       </c>
       <c r="N10" s="10"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -3652,7 +3707,9 @@
       <c r="H11" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="I11" s="5"/>
+      <c r="I11" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J11" s="5" t="s">
         <v>73</v>
       </c>
@@ -3667,7 +3724,7 @@
       </c>
       <c r="N11" s="10"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -3692,7 +3749,9 @@
       <c r="H12" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="I12" s="5"/>
+      <c r="I12" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J12" s="5" t="s">
         <v>79</v>
       </c>
@@ -3707,7 +3766,7 @@
       </c>
       <c r="N12" s="10"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
@@ -3732,7 +3791,9 @@
       <c r="H13" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="I13" s="5"/>
+      <c r="I13" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J13" s="5" t="s">
         <v>86</v>
       </c>
@@ -3747,7 +3808,7 @@
       </c>
       <c r="N13" s="10"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
@@ -3772,7 +3833,9 @@
       <c r="H14" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="I14" s="5"/>
+      <c r="I14" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J14" s="5" t="s">
         <v>89</v>
       </c>
@@ -3787,7 +3850,7 @@
       </c>
       <c r="N14" s="10"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
@@ -3812,7 +3875,9 @@
       <c r="H15" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="I15" s="5"/>
+      <c r="I15" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J15" s="5" t="s">
         <v>95</v>
       </c>
@@ -3827,7 +3892,7 @@
       </c>
       <c r="N15" s="10"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
@@ -3852,7 +3917,9 @@
       <c r="H16" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="I16" s="5"/>
+      <c r="I16" s="5" t="s">
+        <v>928</v>
+      </c>
       <c r="J16" s="5" t="s">
         <v>97</v>
       </c>
@@ -3867,7 +3934,7 @@
       </c>
       <c r="N16" s="10"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>11</v>
       </c>
@@ -3892,7 +3959,9 @@
       <c r="H17" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="I17" s="5"/>
+      <c r="I17" s="5" t="s">
+        <v>928</v>
+      </c>
       <c r="J17" s="5" t="s">
         <v>103</v>
       </c>
@@ -3907,7 +3976,7 @@
       </c>
       <c r="N17" s="10"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>104</v>
       </c>
@@ -3932,7 +4001,9 @@
       <c r="H18" s="4">
         <v>1891</v>
       </c>
-      <c r="I18" s="5"/>
+      <c r="I18" s="5" t="s">
+        <v>928</v>
+      </c>
       <c r="J18" s="5" t="s">
         <v>106</v>
       </c>
@@ -3947,7 +4018,7 @@
       </c>
       <c r="N18" s="10"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>104</v>
       </c>
@@ -3972,7 +4043,9 @@
       <c r="H19" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="I19" s="5"/>
+      <c r="I19" s="5" t="s">
+        <v>928</v>
+      </c>
       <c r="J19" s="5" t="s">
         <v>113</v>
       </c>
@@ -3987,7 +4060,7 @@
       </c>
       <c r="N19" s="10"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>104</v>
       </c>
@@ -4012,7 +4085,9 @@
       <c r="H20" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="I20" s="5"/>
+      <c r="I20" s="5" t="s">
+        <v>928</v>
+      </c>
       <c r="J20" s="5" t="s">
         <v>119</v>
       </c>
@@ -4027,7 +4102,7 @@
       </c>
       <c r="N20" s="10"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>104</v>
       </c>
@@ -4052,7 +4127,9 @@
       <c r="H21" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="I21" s="5"/>
+      <c r="I21" s="5" t="s">
+        <v>928</v>
+      </c>
       <c r="J21" s="5" t="s">
         <v>125</v>
       </c>
@@ -4067,7 +4144,7 @@
       </c>
       <c r="N21" s="10"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>104</v>
       </c>
@@ -4092,7 +4169,9 @@
       <c r="H22" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="I22" s="5"/>
+      <c r="I22" s="5" t="s">
+        <v>928</v>
+      </c>
       <c r="J22" s="5" t="s">
         <v>131</v>
       </c>
@@ -4107,7 +4186,7 @@
       </c>
       <c r="N22" s="10"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>104</v>
       </c>
@@ -4132,7 +4211,9 @@
       <c r="H23" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="I23" s="5"/>
+      <c r="I23" s="5" t="s">
+        <v>928</v>
+      </c>
       <c r="J23" s="5" t="s">
         <v>137</v>
       </c>
@@ -4147,7 +4228,7 @@
       </c>
       <c r="N23" s="10"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>104</v>
       </c>
@@ -4172,7 +4253,9 @@
       <c r="H24" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="I24" s="5"/>
+      <c r="I24" s="5" t="s">
+        <v>929</v>
+      </c>
       <c r="J24" s="5" t="s">
         <v>143</v>
       </c>
@@ -4187,7 +4270,7 @@
       </c>
       <c r="N24" s="10"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>104</v>
       </c>
@@ -4212,7 +4295,9 @@
       <c r="H25" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="I25" s="5"/>
+      <c r="I25" s="5" t="s">
+        <v>928</v>
+      </c>
       <c r="J25" s="5" t="s">
         <v>149</v>
       </c>
@@ -4227,7 +4312,7 @@
       </c>
       <c r="N25" s="10"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>104</v>
       </c>
@@ -4252,7 +4337,9 @@
       <c r="H26" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="I26" s="5"/>
+      <c r="I26" s="5" t="s">
+        <v>928</v>
+      </c>
       <c r="J26" s="5" t="s">
         <v>155</v>
       </c>
@@ -4267,7 +4354,7 @@
       </c>
       <c r="N26" s="10"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>104</v>
       </c>
@@ -4292,7 +4379,9 @@
       <c r="H27" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="I27" s="5"/>
+      <c r="I27" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J27" s="5" t="s">
         <v>161</v>
       </c>
@@ -4307,7 +4396,7 @@
       </c>
       <c r="N27" s="10"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>104</v>
       </c>
@@ -4332,7 +4421,9 @@
       <c r="H28" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="I28" s="5"/>
+      <c r="I28" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J28" s="5" t="s">
         <v>167</v>
       </c>
@@ -4347,7 +4438,7 @@
       </c>
       <c r="N28" s="10"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>104</v>
       </c>
@@ -4372,7 +4463,9 @@
       <c r="H29" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="I29" s="5"/>
+      <c r="I29" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J29" s="5" t="s">
         <v>173</v>
       </c>
@@ -4387,7 +4480,7 @@
       </c>
       <c r="N29" s="10"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>104</v>
       </c>
@@ -4412,7 +4505,9 @@
       <c r="H30" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="I30" s="5"/>
+      <c r="I30" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J30" s="5" t="s">
         <v>179</v>
       </c>
@@ -4427,7 +4522,7 @@
       </c>
       <c r="N30" s="10"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>104</v>
       </c>
@@ -4452,7 +4547,9 @@
       <c r="H31" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="I31" s="5"/>
+      <c r="I31" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J31" s="5" t="s">
         <v>185</v>
       </c>
@@ -4467,7 +4564,7 @@
       </c>
       <c r="N31" s="10"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>104</v>
       </c>
@@ -4492,7 +4589,9 @@
       <c r="H32" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="I32" s="5"/>
+      <c r="I32" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J32" s="5" t="s">
         <v>191</v>
       </c>
@@ -4507,7 +4606,7 @@
       </c>
       <c r="N32" s="10"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>104</v>
       </c>
@@ -4532,7 +4631,9 @@
       <c r="H33" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="I33" s="5"/>
+      <c r="I33" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J33" s="5" t="s">
         <v>197</v>
       </c>
@@ -4547,7 +4648,7 @@
       </c>
       <c r="N33" s="10"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>104</v>
       </c>
@@ -4572,7 +4673,9 @@
       <c r="H34" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="I34" s="5"/>
+      <c r="I34" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J34" s="5" t="s">
         <v>203</v>
       </c>
@@ -4587,7 +4690,7 @@
       </c>
       <c r="N34" s="10"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>104</v>
       </c>
@@ -4612,7 +4715,9 @@
       <c r="H35" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="I35" s="5"/>
+      <c r="I35" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J35" s="5" t="s">
         <v>209</v>
       </c>
@@ -4627,7 +4732,7 @@
       </c>
       <c r="N35" s="10"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>104</v>
       </c>
@@ -4652,7 +4757,9 @@
       <c r="H36" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="I36" s="5"/>
+      <c r="I36" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J36" s="5" t="s">
         <v>215</v>
       </c>
@@ -4667,7 +4774,7 @@
       </c>
       <c r="N36" s="10"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>104</v>
       </c>
@@ -4692,7 +4799,9 @@
       <c r="H37" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="I37" s="5"/>
+      <c r="I37" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J37" s="5" t="s">
         <v>221</v>
       </c>
@@ -4707,7 +4816,7 @@
       </c>
       <c r="N37" s="10"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>104</v>
       </c>
@@ -4732,7 +4841,9 @@
       <c r="H38" s="4">
         <v>15</v>
       </c>
-      <c r="I38" s="5"/>
+      <c r="I38" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J38" s="5" t="s">
         <v>223</v>
       </c>
@@ -4747,7 +4858,7 @@
       </c>
       <c r="N38" s="10"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>104</v>
       </c>
@@ -4772,7 +4883,9 @@
       <c r="H39" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="I39" s="5"/>
+      <c r="I39" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J39" s="5" t="s">
         <v>229</v>
       </c>
@@ -4787,7 +4900,7 @@
       </c>
       <c r="N39" s="10"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>104</v>
       </c>
@@ -4812,7 +4925,9 @@
       <c r="H40" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="I40" s="5"/>
+      <c r="I40" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J40" s="5" t="s">
         <v>235</v>
       </c>
@@ -4827,7 +4942,7 @@
       </c>
       <c r="N40" s="10"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>104</v>
       </c>
@@ -4852,7 +4967,9 @@
       <c r="H41" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="I41" s="5"/>
+      <c r="I41" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J41" s="5" t="s">
         <v>241</v>
       </c>
@@ -4867,7 +4984,7 @@
       </c>
       <c r="N41" s="10"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>104</v>
       </c>
@@ -4892,7 +5009,9 @@
       <c r="H42" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="I42" s="5"/>
+      <c r="I42" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J42" s="5" t="s">
         <v>247</v>
       </c>
@@ -4907,7 +5026,7 @@
       </c>
       <c r="N42" s="10"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>104</v>
       </c>
@@ -4932,7 +5051,9 @@
       <c r="H43" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="I43" s="5"/>
+      <c r="I43" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J43" s="5" t="s">
         <v>253</v>
       </c>
@@ -4947,7 +5068,7 @@
       </c>
       <c r="N43" s="10"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>104</v>
       </c>
@@ -4972,7 +5093,9 @@
       <c r="H44" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="I44" s="5"/>
+      <c r="I44" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J44" s="5" t="s">
         <v>259</v>
       </c>
@@ -4987,7 +5110,7 @@
       </c>
       <c r="N44" s="10"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>104</v>
       </c>
@@ -5012,7 +5135,9 @@
       <c r="H45" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="I45" s="5"/>
+      <c r="I45" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J45" s="5" t="s">
         <v>265</v>
       </c>
@@ -5027,7 +5152,7 @@
       </c>
       <c r="N45" s="10"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>104</v>
       </c>
@@ -5052,7 +5177,9 @@
       <c r="H46" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="I46" s="5"/>
+      <c r="I46" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J46" s="5" t="s">
         <v>272</v>
       </c>
@@ -5067,7 +5194,7 @@
       </c>
       <c r="N46" s="10"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>104</v>
       </c>
@@ -5092,7 +5219,9 @@
       <c r="H47" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="I47" s="5"/>
+      <c r="I47" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J47" s="5" t="s">
         <v>278</v>
       </c>
@@ -5107,7 +5236,7 @@
       </c>
       <c r="N47" s="10"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>104</v>
       </c>
@@ -5132,7 +5261,9 @@
       <c r="H48" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="I48" s="5"/>
+      <c r="I48" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J48" s="5" t="s">
         <v>284</v>
       </c>
@@ -5147,7 +5278,7 @@
       </c>
       <c r="N48" s="10"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>104</v>
       </c>
@@ -5172,7 +5303,9 @@
       <c r="H49" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="I49" s="5"/>
+      <c r="I49" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J49" s="5" t="s">
         <v>290</v>
       </c>
@@ -5187,7 +5320,7 @@
       </c>
       <c r="N49" s="10"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>291</v>
       </c>
@@ -5212,7 +5345,9 @@
       <c r="H50" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="I50" s="5"/>
+      <c r="I50" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J50" s="5" t="s">
         <v>297</v>
       </c>
@@ -5227,7 +5362,7 @@
       </c>
       <c r="N50" s="10"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>291</v>
       </c>
@@ -5252,7 +5387,9 @@
       <c r="H51" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="I51" s="5"/>
+      <c r="I51" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J51" s="5" t="s">
         <v>303</v>
       </c>
@@ -5267,7 +5404,7 @@
       </c>
       <c r="N51" s="10"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>291</v>
       </c>
@@ -5292,7 +5429,9 @@
       <c r="H52" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="I52" s="5"/>
+      <c r="I52" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J52" s="5" t="s">
         <v>309</v>
       </c>
@@ -5307,7 +5446,7 @@
       </c>
       <c r="N52" s="10"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>291</v>
       </c>
@@ -5332,7 +5471,9 @@
       <c r="H53" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="I53" s="5"/>
+      <c r="I53" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J53" s="5" t="s">
         <v>315</v>
       </c>
@@ -5347,7 +5488,7 @@
       </c>
       <c r="N53" s="10"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>291</v>
       </c>
@@ -5372,7 +5513,9 @@
       <c r="H54" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="I54" s="5"/>
+      <c r="I54" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J54" s="5" t="s">
         <v>321</v>
       </c>
@@ -5387,7 +5530,7 @@
       </c>
       <c r="N54" s="10"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>291</v>
       </c>
@@ -5412,7 +5555,9 @@
       <c r="H55" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="I55" s="5"/>
+      <c r="I55" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J55" s="5" t="s">
         <v>327</v>
       </c>
@@ -5427,7 +5572,7 @@
       </c>
       <c r="N55" s="10"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>291</v>
       </c>
@@ -5452,7 +5597,9 @@
       <c r="H56" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="I56" s="5"/>
+      <c r="I56" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J56" s="5" t="s">
         <v>333</v>
       </c>
@@ -5467,7 +5614,7 @@
       </c>
       <c r="N56" s="10"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>291</v>
       </c>
@@ -5492,7 +5639,9 @@
       <c r="H57" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="I57" s="5"/>
+      <c r="I57" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J57" s="5" t="s">
         <v>339</v>
       </c>
@@ -5507,7 +5656,7 @@
       </c>
       <c r="N57" s="10"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>291</v>
       </c>
@@ -5532,7 +5681,9 @@
       <c r="H58" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="I58" s="5"/>
+      <c r="I58" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J58" s="5" t="s">
         <v>345</v>
       </c>
@@ -5547,7 +5698,7 @@
       </c>
       <c r="N58" s="10"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>291</v>
       </c>
@@ -5572,7 +5723,9 @@
       <c r="H59" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="I59" s="5"/>
+      <c r="I59" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J59" s="5" t="s">
         <v>351</v>
       </c>
@@ -5587,7 +5740,7 @@
       </c>
       <c r="N59" s="10"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>291</v>
       </c>
@@ -5612,7 +5765,9 @@
       <c r="H60" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="I60" s="5"/>
+      <c r="I60" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J60" s="5" t="s">
         <v>357</v>
       </c>
@@ -5627,7 +5782,7 @@
       </c>
       <c r="N60" s="10"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>291</v>
       </c>
@@ -5652,7 +5807,9 @@
       <c r="H61" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="I61" s="5"/>
+      <c r="I61" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J61" s="5" t="s">
         <v>363</v>
       </c>
@@ -5667,7 +5824,7 @@
       </c>
       <c r="N61" s="10"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>291</v>
       </c>
@@ -5692,7 +5849,9 @@
       <c r="H62" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="I62" s="5"/>
+      <c r="I62" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J62" s="5" t="s">
         <v>369</v>
       </c>
@@ -5707,7 +5866,7 @@
       </c>
       <c r="N62" s="10"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>291</v>
       </c>
@@ -5732,7 +5891,9 @@
       <c r="H63" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="I63" s="5"/>
+      <c r="I63" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J63" s="5" t="s">
         <v>375</v>
       </c>
@@ -5747,7 +5908,7 @@
       </c>
       <c r="N63" s="10"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>291</v>
       </c>
@@ -5772,7 +5933,9 @@
       <c r="H64" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="I64" s="5"/>
+      <c r="I64" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J64" s="5" t="s">
         <v>381</v>
       </c>
@@ -5787,7 +5950,7 @@
       </c>
       <c r="N64" s="10"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>291</v>
       </c>
@@ -5812,7 +5975,9 @@
       <c r="H65" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="I65" s="5"/>
+      <c r="I65" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J65" s="5" t="s">
         <v>386</v>
       </c>
@@ -5827,7 +5992,7 @@
       </c>
       <c r="N65" s="10"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>291</v>
       </c>
@@ -5852,7 +6017,9 @@
       <c r="H66" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="I66" s="5"/>
+      <c r="I66" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J66" s="5" t="s">
         <v>392</v>
       </c>
@@ -5867,7 +6034,7 @@
       </c>
       <c r="N66" s="10"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>291</v>
       </c>
@@ -5892,7 +6059,9 @@
       <c r="H67" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="I67" s="5"/>
+      <c r="I67" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J67" s="5" t="s">
         <v>398</v>
       </c>
@@ -5907,7 +6076,7 @@
       </c>
       <c r="N67" s="10"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>291</v>
       </c>
@@ -5932,7 +6101,9 @@
       <c r="H68" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="I68" s="5"/>
+      <c r="I68" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J68" s="5" t="s">
         <v>404</v>
       </c>
@@ -5947,7 +6118,7 @@
       </c>
       <c r="N68" s="10"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>291</v>
       </c>
@@ -5972,7 +6143,9 @@
       <c r="H69" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="I69" s="5"/>
+      <c r="I69" s="5" t="s">
+        <v>928</v>
+      </c>
       <c r="J69" s="5" t="s">
         <v>409</v>
       </c>
@@ -5987,7 +6160,7 @@
       </c>
       <c r="N69" s="10"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>291</v>
       </c>
@@ -6012,7 +6185,9 @@
       <c r="H70" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="I70" s="5"/>
+      <c r="I70" s="5" t="s">
+        <v>928</v>
+      </c>
       <c r="J70" s="5" t="s">
         <v>415</v>
       </c>
@@ -6027,7 +6202,7 @@
       </c>
       <c r="N70" s="10"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>291</v>
       </c>
@@ -6052,7 +6227,9 @@
       <c r="H71" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="I71" s="5"/>
+      <c r="I71" s="5" t="s">
+        <v>928</v>
+      </c>
       <c r="J71" s="5" t="s">
         <v>421</v>
       </c>
@@ -6067,7 +6244,7 @@
       </c>
       <c r="N71" s="10"/>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>291</v>
       </c>
@@ -6092,7 +6269,9 @@
       <c r="H72" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="I72" s="5"/>
+      <c r="I72" s="5" t="s">
+        <v>928</v>
+      </c>
       <c r="J72" s="5" t="s">
         <v>426</v>
       </c>
@@ -6107,7 +6286,7 @@
       </c>
       <c r="N72" s="10"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>291</v>
       </c>
@@ -6132,7 +6311,9 @@
       <c r="H73" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="I73" s="5"/>
+      <c r="I73" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J73" s="5" t="s">
         <v>431</v>
       </c>
@@ -6147,7 +6328,7 @@
       </c>
       <c r="N73" s="10"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>291</v>
       </c>
@@ -6172,7 +6353,9 @@
       <c r="H74" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="I74" s="5"/>
+      <c r="I74" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J74" s="5" t="s">
         <v>437</v>
       </c>
@@ -6187,7 +6370,7 @@
       </c>
       <c r="N74" s="10"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>438</v>
       </c>
@@ -6212,7 +6395,9 @@
       <c r="H75" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="I75" s="5"/>
+      <c r="I75" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J75" s="5" t="s">
         <v>444</v>
       </c>
@@ -6227,7 +6412,7 @@
       </c>
       <c r="N75" s="10"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>438</v>
       </c>
@@ -6252,7 +6437,9 @@
       <c r="H76" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="I76" s="5"/>
+      <c r="I76" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J76" s="5" t="s">
         <v>450</v>
       </c>
@@ -6267,7 +6454,7 @@
       </c>
       <c r="N76" s="10"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>438</v>
       </c>
@@ -6292,7 +6479,9 @@
       <c r="H77" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="I77" s="5"/>
+      <c r="I77" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J77" s="5" t="s">
         <v>456</v>
       </c>
@@ -6307,7 +6496,7 @@
       </c>
       <c r="N77" s="10"/>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>438</v>
       </c>
@@ -6332,7 +6521,9 @@
       <c r="H78" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="I78" s="5"/>
+      <c r="I78" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J78" s="5" t="s">
         <v>462</v>
       </c>
@@ -6347,7 +6538,7 @@
       </c>
       <c r="N78" s="10"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>438</v>
       </c>
@@ -6372,7 +6563,9 @@
       <c r="H79" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I79" s="5"/>
+      <c r="I79" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J79" s="5" t="s">
         <v>464</v>
       </c>
@@ -6387,7 +6580,7 @@
       </c>
       <c r="N79" s="10"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>438</v>
       </c>
@@ -6412,7 +6605,9 @@
       <c r="H80" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="I80" s="5"/>
+      <c r="I80" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J80" s="5" t="s">
         <v>470</v>
       </c>
@@ -6427,7 +6622,7 @@
       </c>
       <c r="N80" s="10"/>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>438</v>
       </c>
@@ -6452,7 +6647,9 @@
       <c r="H81" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="I81" s="5"/>
+      <c r="I81" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J81" s="5" t="s">
         <v>476</v>
       </c>
@@ -6467,7 +6664,7 @@
       </c>
       <c r="N81" s="10"/>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>438</v>
       </c>
@@ -6492,7 +6689,9 @@
       <c r="H82" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="I82" s="5"/>
+      <c r="I82" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J82" s="5" t="s">
         <v>482</v>
       </c>
@@ -6507,7 +6706,7 @@
       </c>
       <c r="N82" s="10"/>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>438</v>
       </c>
@@ -6532,7 +6731,9 @@
       <c r="H83" s="4">
         <v>1700</v>
       </c>
-      <c r="I83" s="5"/>
+      <c r="I83" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J83" s="5" t="s">
         <v>484</v>
       </c>
@@ -6547,7 +6748,7 @@
       </c>
       <c r="N83" s="10"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>438</v>
       </c>
@@ -6572,7 +6773,9 @@
       <c r="H84" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="I84" s="5"/>
+      <c r="I84" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J84" s="5" t="s">
         <v>490</v>
       </c>
@@ -6587,7 +6790,7 @@
       </c>
       <c r="N84" s="10"/>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>438</v>
       </c>
@@ -6612,7 +6815,9 @@
       <c r="H85" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="I85" s="5"/>
+      <c r="I85" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J85" s="5" t="s">
         <v>496</v>
       </c>
@@ -6627,7 +6832,7 @@
       </c>
       <c r="N85" s="10"/>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>438</v>
       </c>
@@ -6652,7 +6857,9 @@
       <c r="H86" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="I86" s="5"/>
+      <c r="I86" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J86" s="5" t="s">
         <v>501</v>
       </c>
@@ -6667,7 +6874,7 @@
       </c>
       <c r="N86" s="10"/>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>438</v>
       </c>
@@ -6692,7 +6899,9 @@
       <c r="H87" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="I87" s="5"/>
+      <c r="I87" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J87" s="5" t="s">
         <v>507</v>
       </c>
@@ -6707,7 +6916,7 @@
       </c>
       <c r="N87" s="10"/>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>438</v>
       </c>
@@ -6732,7 +6941,9 @@
       <c r="H88" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="I88" s="5"/>
+      <c r="I88" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J88" s="5" t="s">
         <v>513</v>
       </c>
@@ -6747,7 +6958,7 @@
       </c>
       <c r="N88" s="10"/>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>438</v>
       </c>
@@ -6772,7 +6983,9 @@
       <c r="H89" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="I89" s="5"/>
+      <c r="I89" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J89" s="5" t="s">
         <v>519</v>
       </c>
@@ -6787,7 +7000,7 @@
       </c>
       <c r="N89" s="10"/>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>438</v>
       </c>
@@ -6812,7 +7025,9 @@
       <c r="H90" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="I90" s="5"/>
+      <c r="I90" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J90" s="5" t="s">
         <v>525</v>
       </c>
@@ -6827,7 +7042,7 @@
       </c>
       <c r="N90" s="10"/>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>438</v>
       </c>
@@ -6852,7 +7067,9 @@
       <c r="H91" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="I91" s="5"/>
+      <c r="I91" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J91" s="5" t="s">
         <v>531</v>
       </c>
@@ -6867,7 +7084,7 @@
       </c>
       <c r="N91" s="10"/>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>438</v>
       </c>
@@ -6892,7 +7109,9 @@
       <c r="H92" s="5" t="s">
         <v>536</v>
       </c>
-      <c r="I92" s="5"/>
+      <c r="I92" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J92" s="5" t="s">
         <v>537</v>
       </c>
@@ -6907,7 +7126,7 @@
       </c>
       <c r="N92" s="10"/>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>438</v>
       </c>
@@ -6932,7 +7151,9 @@
       <c r="H93" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="I93" s="5"/>
+      <c r="I93" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J93" s="5" t="s">
         <v>543</v>
       </c>
@@ -6947,7 +7168,7 @@
       </c>
       <c r="N93" s="10"/>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>438</v>
       </c>
@@ -6972,7 +7193,9 @@
       <c r="H94" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="I94" s="5"/>
+      <c r="I94" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J94" s="5" t="s">
         <v>549</v>
       </c>
@@ -6987,7 +7210,7 @@
       </c>
       <c r="N94" s="10"/>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>438</v>
       </c>
@@ -7012,7 +7235,9 @@
       <c r="H95" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="I95" s="5"/>
+      <c r="I95" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J95" s="5" t="s">
         <v>555</v>
       </c>
@@ -7027,7 +7252,7 @@
       </c>
       <c r="N95" s="10"/>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>438</v>
       </c>
@@ -7052,7 +7277,9 @@
       <c r="H96" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="I96" s="5"/>
+      <c r="I96" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J96" s="5" t="s">
         <v>561</v>
       </c>
@@ -7067,7 +7294,7 @@
       </c>
       <c r="N96" s="10"/>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>562</v>
       </c>
@@ -7092,7 +7319,9 @@
       <c r="H97" s="7" t="s">
         <v>567</v>
       </c>
-      <c r="I97" s="5"/>
+      <c r="I97" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J97" s="5" t="s">
         <v>568</v>
       </c>
@@ -7107,7 +7336,7 @@
       </c>
       <c r="N97" s="10"/>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>562</v>
       </c>
@@ -7132,7 +7361,9 @@
       <c r="H98" s="7" t="s">
         <v>573</v>
       </c>
-      <c r="I98" s="5"/>
+      <c r="I98" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J98" s="5" t="s">
         <v>574</v>
       </c>
@@ -7147,7 +7378,7 @@
       </c>
       <c r="N98" s="10"/>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>562</v>
       </c>
@@ -7172,7 +7403,9 @@
       <c r="H99" s="7" t="s">
         <v>579</v>
       </c>
-      <c r="I99" s="5"/>
+      <c r="I99" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J99" s="5" t="s">
         <v>580</v>
       </c>
@@ -7187,7 +7420,7 @@
       </c>
       <c r="N99" s="10"/>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>562</v>
       </c>
@@ -7212,7 +7445,9 @@
       <c r="H100" s="7" t="s">
         <v>585</v>
       </c>
-      <c r="I100" s="5"/>
+      <c r="I100" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J100" s="5" t="s">
         <v>586</v>
       </c>
@@ -7227,7 +7462,7 @@
       </c>
       <c r="N100" s="10"/>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>562</v>
       </c>
@@ -7252,7 +7487,9 @@
       <c r="H101" s="7" t="s">
         <v>591</v>
       </c>
-      <c r="I101" s="5"/>
+      <c r="I101" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J101" s="5" t="s">
         <v>592</v>
       </c>
@@ -7267,7 +7504,7 @@
       </c>
       <c r="N101" s="10"/>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>562</v>
       </c>
@@ -7292,7 +7529,9 @@
       <c r="H102" s="7" t="s">
         <v>597</v>
       </c>
-      <c r="I102" s="5"/>
+      <c r="I102" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J102" s="5" t="s">
         <v>598</v>
       </c>
@@ -7307,7 +7546,7 @@
       </c>
       <c r="N102" s="10"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>562</v>
       </c>
@@ -7332,7 +7571,9 @@
       <c r="H103" s="7" t="s">
         <v>603</v>
       </c>
-      <c r="I103" s="5"/>
+      <c r="I103" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J103" s="5" t="s">
         <v>604</v>
       </c>
@@ -7347,7 +7588,7 @@
       </c>
       <c r="N103" s="10"/>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>562</v>
       </c>
@@ -7372,7 +7613,9 @@
       <c r="H104" s="7" t="s">
         <v>609</v>
       </c>
-      <c r="I104" s="5"/>
+      <c r="I104" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J104" s="5" t="s">
         <v>610</v>
       </c>
@@ -7387,7 +7630,7 @@
       </c>
       <c r="N104" s="10"/>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>562</v>
       </c>
@@ -7412,7 +7655,9 @@
       <c r="H105" s="7" t="s">
         <v>615</v>
       </c>
-      <c r="I105" s="5"/>
+      <c r="I105" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J105" s="5" t="s">
         <v>616</v>
       </c>
@@ -7427,7 +7672,7 @@
       </c>
       <c r="N105" s="10"/>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>562</v>
       </c>
@@ -7452,7 +7697,9 @@
       <c r="H106" s="7" t="s">
         <v>621</v>
       </c>
-      <c r="I106" s="5"/>
+      <c r="I106" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J106" s="5" t="s">
         <v>622</v>
       </c>
@@ -7467,7 +7714,7 @@
       </c>
       <c r="N106" s="10"/>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>562</v>
       </c>
@@ -7492,7 +7739,9 @@
       <c r="H107" s="7" t="s">
         <v>627</v>
       </c>
-      <c r="I107" s="5"/>
+      <c r="I107" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J107" s="5" t="s">
         <v>628</v>
       </c>
@@ -7507,7 +7756,7 @@
       </c>
       <c r="N107" s="10"/>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>562</v>
       </c>
@@ -7532,7 +7781,9 @@
       <c r="H108" s="7" t="s">
         <v>633</v>
       </c>
-      <c r="I108" s="5"/>
+      <c r="I108" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J108" s="5" t="s">
         <v>634</v>
       </c>
@@ -7547,7 +7798,7 @@
       </c>
       <c r="N108" s="10"/>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>635</v>
       </c>
@@ -7572,7 +7823,9 @@
       <c r="H109" s="5" t="s">
         <v>640</v>
       </c>
-      <c r="I109" s="5"/>
+      <c r="I109" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J109" s="5" t="s">
         <v>641</v>
       </c>
@@ -7587,7 +7840,7 @@
       </c>
       <c r="N109" s="10"/>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>642</v>
       </c>
@@ -7612,7 +7865,9 @@
       <c r="H110" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="I110" s="5"/>
+      <c r="I110" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J110" s="5" t="s">
         <v>648</v>
       </c>
@@ -7627,7 +7882,7 @@
       </c>
       <c r="N110" s="10"/>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>642</v>
       </c>
@@ -7652,7 +7907,9 @@
       <c r="H111" s="5" t="s">
         <v>653</v>
       </c>
-      <c r="I111" s="5"/>
+      <c r="I111" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J111" s="5" t="s">
         <v>654</v>
       </c>
@@ -7667,7 +7924,7 @@
       </c>
       <c r="N111" s="10"/>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>642</v>
       </c>
@@ -7692,7 +7949,9 @@
       <c r="H112" s="5" t="s">
         <v>659</v>
       </c>
-      <c r="I112" s="5"/>
+      <c r="I112" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J112" s="5" t="s">
         <v>660</v>
       </c>
@@ -7707,7 +7966,7 @@
       </c>
       <c r="N112" s="10"/>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>642</v>
       </c>
@@ -7732,7 +7991,9 @@
       <c r="H113" s="5" t="s">
         <v>665</v>
       </c>
-      <c r="I113" s="5"/>
+      <c r="I113" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J113" s="5" t="s">
         <v>666</v>
       </c>
@@ -7747,7 +8008,7 @@
       </c>
       <c r="N113" s="10"/>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>642</v>
       </c>
@@ -7772,7 +8033,9 @@
       <c r="H114" s="5" t="s">
         <v>671</v>
       </c>
-      <c r="I114" s="5"/>
+      <c r="I114" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J114" s="5" t="s">
         <v>672</v>
       </c>
@@ -7787,7 +8050,7 @@
       </c>
       <c r="N114" s="10"/>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>642</v>
       </c>
@@ -7812,7 +8075,9 @@
       <c r="H115" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="I115" s="5"/>
+      <c r="I115" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J115" s="5" t="s">
         <v>678</v>
       </c>
@@ -7827,7 +8092,7 @@
       </c>
       <c r="N115" s="10"/>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>642</v>
       </c>
@@ -7852,7 +8117,9 @@
       <c r="H116" s="5" t="s">
         <v>683</v>
       </c>
-      <c r="I116" s="5"/>
+      <c r="I116" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J116" s="5" t="s">
         <v>684</v>
       </c>
@@ -7867,7 +8134,7 @@
       </c>
       <c r="N116" s="10"/>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>642</v>
       </c>
@@ -7892,7 +8159,9 @@
       <c r="H117" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="I117" s="5"/>
+      <c r="I117" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J117" s="5" t="s">
         <v>690</v>
       </c>
@@ -7907,7 +8176,7 @@
       </c>
       <c r="N117" s="10"/>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>642</v>
       </c>
@@ -7932,7 +8201,9 @@
       <c r="H118" s="5" t="s">
         <v>695</v>
       </c>
-      <c r="I118" s="5"/>
+      <c r="I118" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J118" s="5" t="s">
         <v>696</v>
       </c>
@@ -7947,7 +8218,7 @@
       </c>
       <c r="N118" s="10"/>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>642</v>
       </c>
@@ -7972,7 +8243,9 @@
       <c r="H119" s="5" t="s">
         <v>701</v>
       </c>
-      <c r="I119" s="5"/>
+      <c r="I119" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J119" s="5" t="s">
         <v>702</v>
       </c>
@@ -7987,7 +8260,7 @@
       </c>
       <c r="N119" s="10"/>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>642</v>
       </c>
@@ -8012,7 +8285,9 @@
       <c r="H120" s="5" t="s">
         <v>707</v>
       </c>
-      <c r="I120" s="5"/>
+      <c r="I120" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J120" s="5" t="s">
         <v>708</v>
       </c>
@@ -8027,7 +8302,7 @@
       </c>
       <c r="N120" s="10"/>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>642</v>
       </c>
@@ -8052,7 +8327,9 @@
       <c r="H121" s="5" t="s">
         <v>713</v>
       </c>
-      <c r="I121" s="5"/>
+      <c r="I121" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J121" s="5" t="s">
         <v>714</v>
       </c>
@@ -8067,7 +8344,7 @@
       </c>
       <c r="N121" s="10"/>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>642</v>
       </c>
@@ -8092,7 +8369,9 @@
       <c r="H122" s="5" t="s">
         <v>719</v>
       </c>
-      <c r="I122" s="5"/>
+      <c r="I122" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J122" s="5" t="s">
         <v>720</v>
       </c>
@@ -8107,7 +8386,7 @@
       </c>
       <c r="N122" s="10"/>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>642</v>
       </c>
@@ -8132,7 +8411,9 @@
       <c r="H123" s="5" t="s">
         <v>724</v>
       </c>
-      <c r="I123" s="5"/>
+      <c r="I123" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J123" s="5" t="s">
         <v>725</v>
       </c>
@@ -8147,7 +8428,7 @@
       </c>
       <c r="N123" s="10"/>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>642</v>
       </c>
@@ -8172,7 +8453,9 @@
       <c r="H124" s="5" t="s">
         <v>730</v>
       </c>
-      <c r="I124" s="5"/>
+      <c r="I124" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J124" s="5" t="s">
         <v>731</v>
       </c>
@@ -8187,7 +8470,7 @@
       </c>
       <c r="N124" s="10"/>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>642</v>
       </c>
@@ -8212,7 +8495,9 @@
       <c r="H125" s="5" t="s">
         <v>735</v>
       </c>
-      <c r="I125" s="5"/>
+      <c r="I125" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J125" s="5" t="s">
         <v>736</v>
       </c>
@@ -8227,7 +8512,7 @@
       </c>
       <c r="N125" s="10"/>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>642</v>
       </c>
@@ -8252,7 +8537,9 @@
       <c r="H126" s="5" t="s">
         <v>741</v>
       </c>
-      <c r="I126" s="5"/>
+      <c r="I126" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J126" s="5" t="s">
         <v>742</v>
       </c>
@@ -8267,7 +8554,7 @@
       </c>
       <c r="N126" s="10"/>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>642</v>
       </c>
@@ -8292,7 +8579,9 @@
       <c r="H127" s="5" t="s">
         <v>746</v>
       </c>
-      <c r="I127" s="5"/>
+      <c r="I127" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J127" s="5" t="s">
         <v>747</v>
       </c>
@@ -8307,7 +8596,7 @@
       </c>
       <c r="N127" s="10"/>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>642</v>
       </c>
@@ -8332,7 +8621,9 @@
       <c r="H128" s="5" t="s">
         <v>752</v>
       </c>
-      <c r="I128" s="5"/>
+      <c r="I128" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J128" s="5" t="s">
         <v>753</v>
       </c>
@@ -8347,7 +8638,7 @@
       </c>
       <c r="N128" s="10"/>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>642</v>
       </c>
@@ -8372,7 +8663,9 @@
       <c r="H129" s="5" t="s">
         <v>758</v>
       </c>
-      <c r="I129" s="5"/>
+      <c r="I129" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J129" s="5" t="s">
         <v>759</v>
       </c>
@@ -8387,7 +8680,7 @@
       </c>
       <c r="N129" s="10"/>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>642</v>
       </c>
@@ -8412,7 +8705,9 @@
       <c r="H130" s="5" t="s">
         <v>764</v>
       </c>
-      <c r="I130" s="5"/>
+      <c r="I130" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J130" s="5" t="s">
         <v>765</v>
       </c>
@@ -8427,7 +8722,7 @@
       </c>
       <c r="N130" s="10"/>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>642</v>
       </c>
@@ -8452,7 +8747,9 @@
       <c r="H131" s="5" t="s">
         <v>770</v>
       </c>
-      <c r="I131" s="5"/>
+      <c r="I131" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J131" s="5" t="s">
         <v>771</v>
       </c>
@@ -8467,7 +8764,7 @@
       </c>
       <c r="N131" s="10"/>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>642</v>
       </c>
@@ -8492,7 +8789,9 @@
       <c r="H132" s="5" t="s">
         <v>776</v>
       </c>
-      <c r="I132" s="5"/>
+      <c r="I132" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J132" s="5" t="s">
         <v>777</v>
       </c>
@@ -8507,7 +8806,7 @@
       </c>
       <c r="N132" s="10"/>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>642</v>
       </c>
@@ -8532,7 +8831,9 @@
       <c r="H133" s="5" t="s">
         <v>782</v>
       </c>
-      <c r="I133" s="5"/>
+      <c r="I133" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J133" s="5" t="s">
         <v>783</v>
       </c>
@@ -8547,7 +8848,7 @@
       </c>
       <c r="N133" s="10"/>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>642</v>
       </c>
@@ -8572,7 +8873,9 @@
       <c r="H134" s="5" t="s">
         <v>788</v>
       </c>
-      <c r="I134" s="5"/>
+      <c r="I134" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J134" s="5" t="s">
         <v>789</v>
       </c>
@@ -8587,7 +8890,7 @@
       </c>
       <c r="N134" s="10"/>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>642</v>
       </c>
@@ -8612,7 +8915,9 @@
       <c r="H135" s="5" t="s">
         <v>794</v>
       </c>
-      <c r="I135" s="5"/>
+      <c r="I135" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J135" s="5" t="s">
         <v>795</v>
       </c>
@@ -8627,7 +8932,7 @@
       </c>
       <c r="N135" s="10"/>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>642</v>
       </c>
@@ -8652,7 +8957,9 @@
       <c r="H136" s="5" t="s">
         <v>793</v>
       </c>
-      <c r="I136" s="5"/>
+      <c r="I136" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J136" s="5" t="s">
         <v>800</v>
       </c>
@@ -8667,7 +8974,7 @@
       </c>
       <c r="N136" s="10"/>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
         <v>642</v>
       </c>
@@ -8692,7 +8999,9 @@
       <c r="H137" s="5" t="s">
         <v>805</v>
       </c>
-      <c r="I137" s="5"/>
+      <c r="I137" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J137" s="5" t="s">
         <v>806</v>
       </c>
@@ -8707,7 +9016,7 @@
       </c>
       <c r="N137" s="10"/>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
         <v>642</v>
       </c>
@@ -8732,7 +9041,9 @@
       <c r="H138" s="5" t="s">
         <v>811</v>
       </c>
-      <c r="I138" s="5"/>
+      <c r="I138" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J138" s="5" t="s">
         <v>812</v>
       </c>
@@ -8747,7 +9058,7 @@
       </c>
       <c r="N138" s="10"/>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>642</v>
       </c>
@@ -8772,7 +9083,9 @@
       <c r="H139" s="5" t="s">
         <v>817</v>
       </c>
-      <c r="I139" s="5"/>
+      <c r="I139" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J139" s="5" t="s">
         <v>818</v>
       </c>
@@ -8787,7 +9100,7 @@
       </c>
       <c r="N139" s="10"/>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
         <v>642</v>
       </c>
@@ -8812,7 +9125,9 @@
       <c r="H140" s="5" t="s">
         <v>823</v>
       </c>
-      <c r="I140" s="5"/>
+      <c r="I140" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J140" s="5" t="s">
         <v>824</v>
       </c>
@@ -8827,7 +9142,7 @@
       </c>
       <c r="N140" s="10"/>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>642</v>
       </c>
@@ -8852,7 +9167,9 @@
       <c r="H141" s="5" t="s">
         <v>829</v>
       </c>
-      <c r="I141" s="5"/>
+      <c r="I141" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J141" s="5" t="s">
         <v>830</v>
       </c>
@@ -8867,7 +9184,7 @@
       </c>
       <c r="N141" s="10"/>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
         <v>642</v>
       </c>
@@ -8892,7 +9209,9 @@
       <c r="H142" s="5" t="s">
         <v>832</v>
       </c>
-      <c r="I142" s="5"/>
+      <c r="I142" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J142" s="5" t="s">
         <v>833</v>
       </c>
@@ -8907,7 +9226,7 @@
       </c>
       <c r="N142" s="10"/>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
         <v>642</v>
       </c>
@@ -8932,7 +9251,9 @@
       <c r="H143" s="5" t="s">
         <v>838</v>
       </c>
-      <c r="I143" s="5"/>
+      <c r="I143" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J143" s="5" t="s">
         <v>839</v>
       </c>
@@ -8947,7 +9268,7 @@
       </c>
       <c r="N143" s="10"/>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
         <v>642</v>
       </c>
@@ -8972,7 +9293,9 @@
       <c r="H144" s="5" t="s">
         <v>843</v>
       </c>
-      <c r="I144" s="5"/>
+      <c r="I144" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J144" s="5" t="s">
         <v>844</v>
       </c>
@@ -8987,7 +9310,7 @@
       </c>
       <c r="N144" s="10"/>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
         <v>642</v>
       </c>
@@ -9012,7 +9335,9 @@
       <c r="H145" s="5" t="s">
         <v>849</v>
       </c>
-      <c r="I145" s="5"/>
+      <c r="I145" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J145" s="5" t="s">
         <v>850</v>
       </c>
@@ -9027,7 +9352,7 @@
       </c>
       <c r="N145" s="10"/>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
         <v>642</v>
       </c>
@@ -9052,7 +9377,9 @@
       <c r="H146" s="5" t="s">
         <v>855</v>
       </c>
-      <c r="I146" s="5"/>
+      <c r="I146" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J146" s="5" t="s">
         <v>856</v>
       </c>
@@ -9067,7 +9394,7 @@
       </c>
       <c r="N146" s="10"/>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>642</v>
       </c>
@@ -9092,7 +9419,9 @@
       <c r="H147" s="5" t="s">
         <v>861</v>
       </c>
-      <c r="I147" s="5"/>
+      <c r="I147" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J147" s="5" t="s">
         <v>862</v>
       </c>
@@ -9107,7 +9436,7 @@
       </c>
       <c r="N147" s="10"/>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
         <v>642</v>
       </c>
@@ -9132,7 +9461,9 @@
       <c r="H148" s="5" t="s">
         <v>867</v>
       </c>
-      <c r="I148" s="5"/>
+      <c r="I148" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J148" s="5" t="s">
         <v>868</v>
       </c>
@@ -9147,7 +9478,7 @@
       </c>
       <c r="N148" s="10"/>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
         <v>642</v>
       </c>
@@ -9172,7 +9503,9 @@
       <c r="H149" s="5" t="s">
         <v>872</v>
       </c>
-      <c r="I149" s="5"/>
+      <c r="I149" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J149" s="5" t="s">
         <v>873</v>
       </c>
@@ -9187,7 +9520,7 @@
       </c>
       <c r="N149" s="10"/>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
         <v>642</v>
       </c>
@@ -9212,7 +9545,9 @@
       <c r="H150" s="5" t="s">
         <v>878</v>
       </c>
-      <c r="I150" s="5"/>
+      <c r="I150" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J150" s="5" t="s">
         <v>879</v>
       </c>
@@ -9227,7 +9562,7 @@
       </c>
       <c r="N150" s="10"/>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
         <v>642</v>
       </c>
@@ -9252,7 +9587,9 @@
       <c r="H151" s="5" t="s">
         <v>884</v>
       </c>
-      <c r="I151" s="5"/>
+      <c r="I151" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J151" s="5" t="s">
         <v>885</v>
       </c>
@@ -9267,7 +9604,7 @@
       </c>
       <c r="N151" s="10"/>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
         <v>642</v>
       </c>
@@ -9292,7 +9629,9 @@
       <c r="H152" s="5" t="s">
         <v>890</v>
       </c>
-      <c r="I152" s="5"/>
+      <c r="I152" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J152" s="5" t="s">
         <v>891</v>
       </c>
@@ -9307,7 +9646,7 @@
       </c>
       <c r="N152" s="10"/>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
         <v>642</v>
       </c>
@@ -9332,7 +9671,9 @@
       <c r="H153" s="8">
         <v>0.4</v>
       </c>
-      <c r="I153" s="5"/>
+      <c r="I153" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J153" s="5" t="s">
         <v>893</v>
       </c>
@@ -9347,7 +9688,7 @@
       </c>
       <c r="N153" s="10"/>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
         <v>642</v>
       </c>
@@ -9372,7 +9713,9 @@
       <c r="H154" s="5" t="s">
         <v>898</v>
       </c>
-      <c r="I154" s="5"/>
+      <c r="I154" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J154" s="5" t="s">
         <v>899</v>
       </c>
@@ -9387,7 +9730,7 @@
       </c>
       <c r="N154" s="10"/>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
         <v>642</v>
       </c>
@@ -9412,7 +9755,9 @@
       <c r="H155" s="5" t="s">
         <v>904</v>
       </c>
-      <c r="I155" s="5"/>
+      <c r="I155" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J155" s="5" t="s">
         <v>905</v>
       </c>
@@ -9427,7 +9772,7 @@
       </c>
       <c r="N155" s="10"/>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
         <v>642</v>
       </c>
@@ -9452,7 +9797,9 @@
       <c r="H156" s="5" t="s">
         <v>910</v>
       </c>
-      <c r="I156" s="5"/>
+      <c r="I156" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J156" s="5" t="s">
         <v>911</v>
       </c>
@@ -9467,7 +9814,7 @@
       </c>
       <c r="N156" s="10"/>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
         <v>642</v>
       </c>
@@ -9492,7 +9839,9 @@
       <c r="H157" s="5" t="s">
         <v>916</v>
       </c>
-      <c r="I157" s="5"/>
+      <c r="I157" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J157" s="5" t="s">
         <v>917</v>
       </c>
@@ -9507,7 +9856,7 @@
       </c>
       <c r="N157" s="10"/>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
         <v>642</v>
       </c>
@@ -9532,7 +9881,9 @@
       <c r="H158" s="5" t="s">
         <v>921</v>
       </c>
-      <c r="I158" s="5"/>
+      <c r="I158" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J158" s="5" t="s">
         <v>922</v>
       </c>
@@ -9546,6 +9897,12 @@
         <v>1</v>
       </c>
       <c r="N158" s="10"/>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I159" s="11"/>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I160" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9555,24 +9912,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N158"/>
+  <dimension ref="A1:N160"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="H159" sqref="H159"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="45.5703125" style="1" customWidth="1"/>
-    <col min="5" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="29.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="3.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="3" width="8.83203125" style="1"/>
+    <col min="4" max="4" width="45.5" style="1" customWidth="1"/>
+    <col min="5" max="7" width="8.83203125" style="1"/>
+    <col min="8" max="8" width="29.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9616,7 +9973,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -9641,7 +9998,9 @@
       <c r="H2" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="5"/>
+      <c r="I2" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J2" s="5" t="s">
         <v>66</v>
       </c>
@@ -9656,7 +10015,7 @@
       </c>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -9681,7 +10040,9 @@
       <c r="H3" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="I3" s="5"/>
+      <c r="I3" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J3" s="5" t="s">
         <v>73</v>
       </c>
@@ -9696,7 +10057,7 @@
       </c>
       <c r="N3" s="6"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -9721,7 +10082,9 @@
       <c r="H4" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="I4" s="5"/>
+      <c r="I4" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J4" s="5" t="s">
         <v>79</v>
       </c>
@@ -9736,7 +10099,7 @@
       </c>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -9761,7 +10124,9 @@
       <c r="H5" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="I5" s="5"/>
+      <c r="I5" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J5" s="5" t="s">
         <v>86</v>
       </c>
@@ -9776,7 +10141,7 @@
       </c>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -9801,7 +10166,9 @@
       <c r="H6" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="I6" s="5"/>
+      <c r="I6" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J6" s="5" t="s">
         <v>89</v>
       </c>
@@ -9816,7 +10183,7 @@
       </c>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -9841,7 +10208,9 @@
       <c r="H7" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="I7" s="5"/>
+      <c r="I7" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J7" s="5" t="s">
         <v>95</v>
       </c>
@@ -9856,7 +10225,7 @@
       </c>
       <c r="N7" s="6"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -9881,7 +10250,9 @@
       <c r="H8" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="5"/>
+      <c r="I8" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J8" s="5" t="s">
         <v>97</v>
       </c>
@@ -9896,7 +10267,7 @@
       </c>
       <c r="N8" s="6"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -9921,7 +10292,9 @@
       <c r="H9" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="I9" s="5"/>
+      <c r="I9" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J9" s="5" t="s">
         <v>103</v>
       </c>
@@ -9936,7 +10309,7 @@
       </c>
       <c r="N9" s="6"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>104</v>
       </c>
@@ -9961,7 +10334,9 @@
       <c r="H10" s="4">
         <v>1891</v>
       </c>
-      <c r="I10" s="5"/>
+      <c r="I10" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J10" s="5" t="s">
         <v>106</v>
       </c>
@@ -9976,7 +10351,7 @@
       </c>
       <c r="N10" s="6"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>104</v>
       </c>
@@ -10001,7 +10376,9 @@
       <c r="H11" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="I11" s="5"/>
+      <c r="I11" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J11" s="5" t="s">
         <v>113</v>
       </c>
@@ -10016,7 +10393,7 @@
       </c>
       <c r="N11" s="6"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>104</v>
       </c>
@@ -10041,7 +10418,9 @@
       <c r="H12" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="I12" s="5"/>
+      <c r="I12" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J12" s="5" t="s">
         <v>119</v>
       </c>
@@ -10056,7 +10435,7 @@
       </c>
       <c r="N12" s="6"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>104</v>
       </c>
@@ -10081,7 +10460,9 @@
       <c r="H13" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="I13" s="5"/>
+      <c r="I13" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J13" s="5" t="s">
         <v>125</v>
       </c>
@@ -10096,7 +10477,7 @@
       </c>
       <c r="N13" s="6"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
@@ -10121,7 +10502,9 @@
       <c r="H14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="5"/>
+      <c r="I14" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J14" s="5" t="s">
         <v>17</v>
       </c>
@@ -10136,7 +10519,7 @@
       </c>
       <c r="N14" s="6"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
@@ -10161,7 +10544,9 @@
       <c r="H15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I15" s="5"/>
+      <c r="I15" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J15" s="5" t="s">
         <v>24</v>
       </c>
@@ -10176,7 +10561,7 @@
       </c>
       <c r="N15" s="6"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
@@ -10201,7 +10586,9 @@
       <c r="H16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="5"/>
+      <c r="I16" s="5" t="s">
+        <v>928</v>
+      </c>
       <c r="J16" s="5" t="s">
         <v>30</v>
       </c>
@@ -10216,7 +10603,7 @@
       </c>
       <c r="N16" s="6"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>11</v>
       </c>
@@ -10241,7 +10628,9 @@
       <c r="H17" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="5"/>
+      <c r="I17" s="5" t="s">
+        <v>928</v>
+      </c>
       <c r="J17" s="5" t="s">
         <v>37</v>
       </c>
@@ -10256,7 +10645,7 @@
       </c>
       <c r="N17" s="6"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>11</v>
       </c>
@@ -10281,7 +10670,9 @@
       <c r="H18" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I18" s="5"/>
+      <c r="I18" s="5" t="s">
+        <v>928</v>
+      </c>
       <c r="J18" s="5" t="s">
         <v>43</v>
       </c>
@@ -10296,7 +10687,7 @@
       </c>
       <c r="N18" s="6"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>11</v>
       </c>
@@ -10321,7 +10712,9 @@
       <c r="H19" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I19" s="5"/>
+      <c r="I19" s="5" t="s">
+        <v>928</v>
+      </c>
       <c r="J19" s="5" t="s">
         <v>49</v>
       </c>
@@ -10336,7 +10729,7 @@
       </c>
       <c r="N19" s="6"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>11</v>
       </c>
@@ -10361,7 +10754,9 @@
       <c r="H20" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="I20" s="5"/>
+      <c r="I20" s="5" t="s">
+        <v>928</v>
+      </c>
       <c r="J20" s="5" t="s">
         <v>56</v>
       </c>
@@ -10376,7 +10771,7 @@
       </c>
       <c r="N20" s="6"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>11</v>
       </c>
@@ -10401,7 +10796,9 @@
       <c r="H21" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="I21" s="5"/>
+      <c r="I21" s="5" t="s">
+        <v>928</v>
+      </c>
       <c r="J21" s="5" t="s">
         <v>59</v>
       </c>
@@ -10416,7 +10813,7 @@
       </c>
       <c r="N21" s="6"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>104</v>
       </c>
@@ -10441,7 +10838,9 @@
       <c r="H22" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="I22" s="5"/>
+      <c r="I22" s="5" t="s">
+        <v>928</v>
+      </c>
       <c r="J22" s="5" t="s">
         <v>131</v>
       </c>
@@ -10456,7 +10855,7 @@
       </c>
       <c r="N22" s="6"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>104</v>
       </c>
@@ -10481,7 +10880,9 @@
       <c r="H23" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="I23" s="5"/>
+      <c r="I23" s="5" t="s">
+        <v>928</v>
+      </c>
       <c r="J23" s="5" t="s">
         <v>137</v>
       </c>
@@ -10496,7 +10897,7 @@
       </c>
       <c r="N23" s="6"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>104</v>
       </c>
@@ -10521,7 +10922,9 @@
       <c r="H24" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="I24" s="5"/>
+      <c r="I24" s="5" t="s">
+        <v>929</v>
+      </c>
       <c r="J24" s="5" t="s">
         <v>143</v>
       </c>
@@ -10536,7 +10939,7 @@
       </c>
       <c r="N24" s="6"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>104</v>
       </c>
@@ -10561,7 +10964,9 @@
       <c r="H25" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="I25" s="5"/>
+      <c r="I25" s="5" t="s">
+        <v>928</v>
+      </c>
       <c r="J25" s="5" t="s">
         <v>149</v>
       </c>
@@ -10576,7 +10981,7 @@
       </c>
       <c r="N25" s="6"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>104</v>
       </c>
@@ -10601,7 +11006,9 @@
       <c r="H26" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="I26" s="5"/>
+      <c r="I26" s="5" t="s">
+        <v>928</v>
+      </c>
       <c r="J26" s="5" t="s">
         <v>155</v>
       </c>
@@ -10616,7 +11023,7 @@
       </c>
       <c r="N26" s="6"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>104</v>
       </c>
@@ -10641,7 +11048,9 @@
       <c r="H27" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="I27" s="5"/>
+      <c r="I27" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J27" s="5" t="s">
         <v>161</v>
       </c>
@@ -10656,7 +11065,7 @@
       </c>
       <c r="N27" s="6"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>104</v>
       </c>
@@ -10681,7 +11090,9 @@
       <c r="H28" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="I28" s="5"/>
+      <c r="I28" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J28" s="5" t="s">
         <v>167</v>
       </c>
@@ -10696,7 +11107,7 @@
       </c>
       <c r="N28" s="6"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>104</v>
       </c>
@@ -10721,7 +11132,9 @@
       <c r="H29" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="I29" s="5"/>
+      <c r="I29" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J29" s="5" t="s">
         <v>173</v>
       </c>
@@ -10736,7 +11149,7 @@
       </c>
       <c r="N29" s="6"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>104</v>
       </c>
@@ -10761,7 +11174,9 @@
       <c r="H30" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="I30" s="5"/>
+      <c r="I30" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J30" s="5" t="s">
         <v>179</v>
       </c>
@@ -10776,7 +11191,7 @@
       </c>
       <c r="N30" s="6"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>104</v>
       </c>
@@ -10801,7 +11216,9 @@
       <c r="H31" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="I31" s="5"/>
+      <c r="I31" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J31" s="5" t="s">
         <v>185</v>
       </c>
@@ -10816,7 +11233,7 @@
       </c>
       <c r="N31" s="6"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>104</v>
       </c>
@@ -10841,7 +11258,9 @@
       <c r="H32" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="I32" s="5"/>
+      <c r="I32" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J32" s="5" t="s">
         <v>191</v>
       </c>
@@ -10856,7 +11275,7 @@
       </c>
       <c r="N32" s="6"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>104</v>
       </c>
@@ -10881,7 +11300,9 @@
       <c r="H33" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="I33" s="5"/>
+      <c r="I33" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J33" s="5" t="s">
         <v>197</v>
       </c>
@@ -10896,7 +11317,7 @@
       </c>
       <c r="N33" s="6"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>104</v>
       </c>
@@ -10921,7 +11342,9 @@
       <c r="H34" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="I34" s="5"/>
+      <c r="I34" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J34" s="5" t="s">
         <v>203</v>
       </c>
@@ -10936,7 +11359,7 @@
       </c>
       <c r="N34" s="6"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>104</v>
       </c>
@@ -10961,7 +11384,9 @@
       <c r="H35" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="I35" s="5"/>
+      <c r="I35" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J35" s="5" t="s">
         <v>209</v>
       </c>
@@ -10976,7 +11401,7 @@
       </c>
       <c r="N35" s="6"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>104</v>
       </c>
@@ -11001,7 +11426,9 @@
       <c r="H36" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="I36" s="5"/>
+      <c r="I36" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J36" s="5" t="s">
         <v>215</v>
       </c>
@@ -11016,7 +11443,7 @@
       </c>
       <c r="N36" s="6"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>104</v>
       </c>
@@ -11041,7 +11468,9 @@
       <c r="H37" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="I37" s="5"/>
+      <c r="I37" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J37" s="5" t="s">
         <v>221</v>
       </c>
@@ -11056,7 +11485,7 @@
       </c>
       <c r="N37" s="6"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>104</v>
       </c>
@@ -11081,7 +11510,9 @@
       <c r="H38" s="4">
         <v>15</v>
       </c>
-      <c r="I38" s="5"/>
+      <c r="I38" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J38" s="5" t="s">
         <v>223</v>
       </c>
@@ -11096,7 +11527,7 @@
       </c>
       <c r="N38" s="6"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>104</v>
       </c>
@@ -11121,7 +11552,9 @@
       <c r="H39" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="I39" s="5"/>
+      <c r="I39" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J39" s="5" t="s">
         <v>229</v>
       </c>
@@ -11136,7 +11569,7 @@
       </c>
       <c r="N39" s="6"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>104</v>
       </c>
@@ -11161,7 +11594,9 @@
       <c r="H40" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="I40" s="5"/>
+      <c r="I40" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J40" s="5" t="s">
         <v>235</v>
       </c>
@@ -11176,7 +11611,7 @@
       </c>
       <c r="N40" s="6"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>104</v>
       </c>
@@ -11201,7 +11636,9 @@
       <c r="H41" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="I41" s="5"/>
+      <c r="I41" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J41" s="5" t="s">
         <v>241</v>
       </c>
@@ -11216,7 +11653,7 @@
       </c>
       <c r="N41" s="6"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>104</v>
       </c>
@@ -11241,7 +11678,9 @@
       <c r="H42" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="I42" s="5"/>
+      <c r="I42" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J42" s="5" t="s">
         <v>247</v>
       </c>
@@ -11256,7 +11695,7 @@
       </c>
       <c r="N42" s="6"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>104</v>
       </c>
@@ -11281,7 +11720,9 @@
       <c r="H43" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="I43" s="5"/>
+      <c r="I43" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J43" s="5" t="s">
         <v>253</v>
       </c>
@@ -11296,7 +11737,7 @@
       </c>
       <c r="N43" s="6"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>104</v>
       </c>
@@ -11321,7 +11762,9 @@
       <c r="H44" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="I44" s="5"/>
+      <c r="I44" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J44" s="5" t="s">
         <v>259</v>
       </c>
@@ -11336,7 +11779,7 @@
       </c>
       <c r="N44" s="6"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>104</v>
       </c>
@@ -11361,7 +11804,9 @@
       <c r="H45" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="I45" s="5"/>
+      <c r="I45" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J45" s="5" t="s">
         <v>265</v>
       </c>
@@ -11376,7 +11821,7 @@
       </c>
       <c r="N45" s="6"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>104</v>
       </c>
@@ -11401,7 +11846,9 @@
       <c r="H46" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="I46" s="5"/>
+      <c r="I46" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J46" s="5" t="s">
         <v>272</v>
       </c>
@@ -11416,7 +11863,7 @@
       </c>
       <c r="N46" s="6"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>104</v>
       </c>
@@ -11441,7 +11888,9 @@
       <c r="H47" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="I47" s="5"/>
+      <c r="I47" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J47" s="5" t="s">
         <v>278</v>
       </c>
@@ -11456,7 +11905,7 @@
       </c>
       <c r="N47" s="6"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>104</v>
       </c>
@@ -11481,7 +11930,9 @@
       <c r="H48" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="I48" s="5"/>
+      <c r="I48" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J48" s="5" t="s">
         <v>284</v>
       </c>
@@ -11496,7 +11947,7 @@
       </c>
       <c r="N48" s="6"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>104</v>
       </c>
@@ -11521,7 +11972,9 @@
       <c r="H49" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="I49" s="5"/>
+      <c r="I49" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J49" s="5" t="s">
         <v>290</v>
       </c>
@@ -11536,7 +11989,7 @@
       </c>
       <c r="N49" s="6"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>291</v>
       </c>
@@ -11561,7 +12014,9 @@
       <c r="H50" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="I50" s="5"/>
+      <c r="I50" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J50" s="5" t="s">
         <v>297</v>
       </c>
@@ -11576,7 +12031,7 @@
       </c>
       <c r="N50" s="6"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>291</v>
       </c>
@@ -11601,7 +12056,9 @@
       <c r="H51" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="I51" s="5"/>
+      <c r="I51" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J51" s="5" t="s">
         <v>303</v>
       </c>
@@ -11616,7 +12073,7 @@
       </c>
       <c r="N51" s="6"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>291</v>
       </c>
@@ -11641,7 +12098,9 @@
       <c r="H52" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="I52" s="5"/>
+      <c r="I52" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J52" s="5" t="s">
         <v>309</v>
       </c>
@@ -11656,7 +12115,7 @@
       </c>
       <c r="N52" s="6"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>291</v>
       </c>
@@ -11681,7 +12140,9 @@
       <c r="H53" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="I53" s="5"/>
+      <c r="I53" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J53" s="5" t="s">
         <v>315</v>
       </c>
@@ -11696,7 +12157,7 @@
       </c>
       <c r="N53" s="6"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>291</v>
       </c>
@@ -11721,7 +12182,9 @@
       <c r="H54" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="I54" s="5"/>
+      <c r="I54" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J54" s="5" t="s">
         <v>321</v>
       </c>
@@ -11736,7 +12199,7 @@
       </c>
       <c r="N54" s="6"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>291</v>
       </c>
@@ -11761,7 +12224,9 @@
       <c r="H55" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="I55" s="5"/>
+      <c r="I55" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J55" s="5" t="s">
         <v>327</v>
       </c>
@@ -11776,7 +12241,7 @@
       </c>
       <c r="N55" s="6"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>291</v>
       </c>
@@ -11801,7 +12266,9 @@
       <c r="H56" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="I56" s="5"/>
+      <c r="I56" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J56" s="5" t="s">
         <v>333</v>
       </c>
@@ -11816,7 +12283,7 @@
       </c>
       <c r="N56" s="6"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>291</v>
       </c>
@@ -11841,7 +12308,9 @@
       <c r="H57" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="I57" s="5"/>
+      <c r="I57" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J57" s="5" t="s">
         <v>339</v>
       </c>
@@ -11856,7 +12325,7 @@
       </c>
       <c r="N57" s="6"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>291</v>
       </c>
@@ -11881,7 +12350,9 @@
       <c r="H58" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="I58" s="5"/>
+      <c r="I58" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J58" s="5" t="s">
         <v>345</v>
       </c>
@@ -11896,7 +12367,7 @@
       </c>
       <c r="N58" s="6"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>291</v>
       </c>
@@ -11921,7 +12392,9 @@
       <c r="H59" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="I59" s="5"/>
+      <c r="I59" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J59" s="5" t="s">
         <v>351</v>
       </c>
@@ -11936,7 +12409,7 @@
       </c>
       <c r="N59" s="6"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>291</v>
       </c>
@@ -11961,7 +12434,9 @@
       <c r="H60" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="I60" s="5"/>
+      <c r="I60" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J60" s="5" t="s">
         <v>357</v>
       </c>
@@ -11976,7 +12451,7 @@
       </c>
       <c r="N60" s="6"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>291</v>
       </c>
@@ -12001,7 +12476,9 @@
       <c r="H61" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="I61" s="5"/>
+      <c r="I61" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J61" s="5" t="s">
         <v>363</v>
       </c>
@@ -12016,7 +12493,7 @@
       </c>
       <c r="N61" s="6"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>291</v>
       </c>
@@ -12041,7 +12518,9 @@
       <c r="H62" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="I62" s="5"/>
+      <c r="I62" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J62" s="5" t="s">
         <v>369</v>
       </c>
@@ -12056,7 +12535,7 @@
       </c>
       <c r="N62" s="6"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>291</v>
       </c>
@@ -12081,7 +12560,9 @@
       <c r="H63" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="I63" s="5"/>
+      <c r="I63" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J63" s="5" t="s">
         <v>375</v>
       </c>
@@ -12096,7 +12577,7 @@
       </c>
       <c r="N63" s="6"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>291</v>
       </c>
@@ -12121,7 +12602,9 @@
       <c r="H64" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="I64" s="5"/>
+      <c r="I64" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J64" s="5" t="s">
         <v>381</v>
       </c>
@@ -12136,7 +12619,7 @@
       </c>
       <c r="N64" s="6"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>291</v>
       </c>
@@ -12161,7 +12644,9 @@
       <c r="H65" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="I65" s="5"/>
+      <c r="I65" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J65" s="5" t="s">
         <v>386</v>
       </c>
@@ -12176,7 +12661,7 @@
       </c>
       <c r="N65" s="6"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>291</v>
       </c>
@@ -12201,7 +12686,9 @@
       <c r="H66" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="I66" s="5"/>
+      <c r="I66" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J66" s="5" t="s">
         <v>392</v>
       </c>
@@ -12216,7 +12703,7 @@
       </c>
       <c r="N66" s="6"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>291</v>
       </c>
@@ -12241,7 +12728,9 @@
       <c r="H67" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="I67" s="5"/>
+      <c r="I67" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J67" s="5" t="s">
         <v>398</v>
       </c>
@@ -12256,7 +12745,7 @@
       </c>
       <c r="N67" s="6"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>291</v>
       </c>
@@ -12281,7 +12770,9 @@
       <c r="H68" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="I68" s="5"/>
+      <c r="I68" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J68" s="5" t="s">
         <v>404</v>
       </c>
@@ -12296,7 +12787,7 @@
       </c>
       <c r="N68" s="6"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>291</v>
       </c>
@@ -12321,7 +12812,9 @@
       <c r="H69" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="I69" s="5"/>
+      <c r="I69" s="5" t="s">
+        <v>928</v>
+      </c>
       <c r="J69" s="5" t="s">
         <v>409</v>
       </c>
@@ -12336,7 +12829,7 @@
       </c>
       <c r="N69" s="6"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>291</v>
       </c>
@@ -12361,7 +12854,9 @@
       <c r="H70" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="I70" s="5"/>
+      <c r="I70" s="5" t="s">
+        <v>928</v>
+      </c>
       <c r="J70" s="5" t="s">
         <v>415</v>
       </c>
@@ -12376,7 +12871,7 @@
       </c>
       <c r="N70" s="6"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>291</v>
       </c>
@@ -12401,7 +12896,9 @@
       <c r="H71" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="I71" s="5"/>
+      <c r="I71" s="5" t="s">
+        <v>928</v>
+      </c>
       <c r="J71" s="5" t="s">
         <v>421</v>
       </c>
@@ -12416,7 +12913,7 @@
       </c>
       <c r="N71" s="6"/>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>291</v>
       </c>
@@ -12441,7 +12938,9 @@
       <c r="H72" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="I72" s="5"/>
+      <c r="I72" s="5" t="s">
+        <v>928</v>
+      </c>
       <c r="J72" s="5" t="s">
         <v>426</v>
       </c>
@@ -12456,7 +12955,7 @@
       </c>
       <c r="N72" s="6"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>291</v>
       </c>
@@ -12481,7 +12980,9 @@
       <c r="H73" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="I73" s="5"/>
+      <c r="I73" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J73" s="5" t="s">
         <v>431</v>
       </c>
@@ -12496,7 +12997,7 @@
       </c>
       <c r="N73" s="6"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>291</v>
       </c>
@@ -12521,7 +13022,9 @@
       <c r="H74" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="I74" s="5"/>
+      <c r="I74" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J74" s="5" t="s">
         <v>437</v>
       </c>
@@ -12536,7 +13039,7 @@
       </c>
       <c r="N74" s="6"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>438</v>
       </c>
@@ -12561,7 +13064,9 @@
       <c r="H75" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="I75" s="5"/>
+      <c r="I75" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J75" s="5" t="s">
         <v>444</v>
       </c>
@@ -12576,7 +13081,7 @@
       </c>
       <c r="N75" s="6"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>438</v>
       </c>
@@ -12601,7 +13106,9 @@
       <c r="H76" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="I76" s="5"/>
+      <c r="I76" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J76" s="5" t="s">
         <v>450</v>
       </c>
@@ -12616,7 +13123,7 @@
       </c>
       <c r="N76" s="6"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>438</v>
       </c>
@@ -12641,7 +13148,9 @@
       <c r="H77" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="I77" s="5"/>
+      <c r="I77" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J77" s="5" t="s">
         <v>456</v>
       </c>
@@ -12656,7 +13165,7 @@
       </c>
       <c r="N77" s="6"/>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>438</v>
       </c>
@@ -12681,7 +13190,9 @@
       <c r="H78" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="I78" s="5"/>
+      <c r="I78" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J78" s="5" t="s">
         <v>462</v>
       </c>
@@ -12696,7 +13207,7 @@
       </c>
       <c r="N78" s="6"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>438</v>
       </c>
@@ -12721,7 +13232,9 @@
       <c r="H79" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I79" s="5"/>
+      <c r="I79" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J79" s="5" t="s">
         <v>464</v>
       </c>
@@ -12736,7 +13249,7 @@
       </c>
       <c r="N79" s="6"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>438</v>
       </c>
@@ -12761,7 +13274,9 @@
       <c r="H80" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="I80" s="5"/>
+      <c r="I80" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J80" s="5" t="s">
         <v>470</v>
       </c>
@@ -12776,7 +13291,7 @@
       </c>
       <c r="N80" s="6"/>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>438</v>
       </c>
@@ -12801,7 +13316,9 @@
       <c r="H81" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="I81" s="5"/>
+      <c r="I81" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J81" s="5" t="s">
         <v>476</v>
       </c>
@@ -12816,7 +13333,7 @@
       </c>
       <c r="N81" s="6"/>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>438</v>
       </c>
@@ -12841,7 +13358,9 @@
       <c r="H82" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="I82" s="5"/>
+      <c r="I82" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J82" s="5" t="s">
         <v>482</v>
       </c>
@@ -12856,7 +13375,7 @@
       </c>
       <c r="N82" s="6"/>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>438</v>
       </c>
@@ -12881,7 +13400,9 @@
       <c r="H83" s="4">
         <v>1700</v>
       </c>
-      <c r="I83" s="5"/>
+      <c r="I83" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J83" s="5" t="s">
         <v>484</v>
       </c>
@@ -12896,7 +13417,7 @@
       </c>
       <c r="N83" s="6"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>438</v>
       </c>
@@ -12921,7 +13442,9 @@
       <c r="H84" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="I84" s="5"/>
+      <c r="I84" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J84" s="5" t="s">
         <v>490</v>
       </c>
@@ -12936,7 +13459,7 @@
       </c>
       <c r="N84" s="6"/>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>438</v>
       </c>
@@ -12961,7 +13484,9 @@
       <c r="H85" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="I85" s="5"/>
+      <c r="I85" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J85" s="5" t="s">
         <v>496</v>
       </c>
@@ -12976,7 +13501,7 @@
       </c>
       <c r="N85" s="6"/>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>438</v>
       </c>
@@ -13001,7 +13526,9 @@
       <c r="H86" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="I86" s="5"/>
+      <c r="I86" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J86" s="5" t="s">
         <v>501</v>
       </c>
@@ -13016,7 +13543,7 @@
       </c>
       <c r="N86" s="6"/>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>438</v>
       </c>
@@ -13041,7 +13568,9 @@
       <c r="H87" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="I87" s="5"/>
+      <c r="I87" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J87" s="5" t="s">
         <v>507</v>
       </c>
@@ -13056,7 +13585,7 @@
       </c>
       <c r="N87" s="6"/>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>438</v>
       </c>
@@ -13081,7 +13610,9 @@
       <c r="H88" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="I88" s="5"/>
+      <c r="I88" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J88" s="5" t="s">
         <v>513</v>
       </c>
@@ -13096,7 +13627,7 @@
       </c>
       <c r="N88" s="6"/>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>438</v>
       </c>
@@ -13121,7 +13652,9 @@
       <c r="H89" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="I89" s="5"/>
+      <c r="I89" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J89" s="5" t="s">
         <v>519</v>
       </c>
@@ -13136,7 +13669,7 @@
       </c>
       <c r="N89" s="6"/>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>438</v>
       </c>
@@ -13161,7 +13694,9 @@
       <c r="H90" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="I90" s="5"/>
+      <c r="I90" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J90" s="5" t="s">
         <v>525</v>
       </c>
@@ -13176,7 +13711,7 @@
       </c>
       <c r="N90" s="6"/>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>438</v>
       </c>
@@ -13201,7 +13736,9 @@
       <c r="H91" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="I91" s="5"/>
+      <c r="I91" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J91" s="5" t="s">
         <v>531</v>
       </c>
@@ -13216,7 +13753,7 @@
       </c>
       <c r="N91" s="6"/>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>438</v>
       </c>
@@ -13241,7 +13778,9 @@
       <c r="H92" s="5" t="s">
         <v>536</v>
       </c>
-      <c r="I92" s="5"/>
+      <c r="I92" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J92" s="5" t="s">
         <v>537</v>
       </c>
@@ -13256,7 +13795,7 @@
       </c>
       <c r="N92" s="6"/>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>438</v>
       </c>
@@ -13281,7 +13820,9 @@
       <c r="H93" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="I93" s="5"/>
+      <c r="I93" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J93" s="5" t="s">
         <v>543</v>
       </c>
@@ -13296,7 +13837,7 @@
       </c>
       <c r="N93" s="6"/>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>438</v>
       </c>
@@ -13321,7 +13862,9 @@
       <c r="H94" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="I94" s="5"/>
+      <c r="I94" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J94" s="5" t="s">
         <v>549</v>
       </c>
@@ -13336,7 +13879,7 @@
       </c>
       <c r="N94" s="6"/>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>438</v>
       </c>
@@ -13361,7 +13904,9 @@
       <c r="H95" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="I95" s="5"/>
+      <c r="I95" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J95" s="5" t="s">
         <v>555</v>
       </c>
@@ -13376,7 +13921,7 @@
       </c>
       <c r="N95" s="6"/>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>438</v>
       </c>
@@ -13401,7 +13946,9 @@
       <c r="H96" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="I96" s="5"/>
+      <c r="I96" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J96" s="5" t="s">
         <v>561</v>
       </c>
@@ -13416,7 +13963,7 @@
       </c>
       <c r="N96" s="6"/>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>562</v>
       </c>
@@ -13441,7 +13988,9 @@
       <c r="H97" s="7" t="s">
         <v>567</v>
       </c>
-      <c r="I97" s="5"/>
+      <c r="I97" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J97" s="5" t="s">
         <v>568</v>
       </c>
@@ -13456,7 +14005,7 @@
       </c>
       <c r="N97" s="6"/>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>562</v>
       </c>
@@ -13481,7 +14030,9 @@
       <c r="H98" s="7" t="s">
         <v>573</v>
       </c>
-      <c r="I98" s="5"/>
+      <c r="I98" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J98" s="5" t="s">
         <v>574</v>
       </c>
@@ -13496,7 +14047,7 @@
       </c>
       <c r="N98" s="6"/>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>562</v>
       </c>
@@ -13521,7 +14072,9 @@
       <c r="H99" s="7" t="s">
         <v>579</v>
       </c>
-      <c r="I99" s="5"/>
+      <c r="I99" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J99" s="5" t="s">
         <v>580</v>
       </c>
@@ -13536,7 +14089,7 @@
       </c>
       <c r="N99" s="6"/>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>562</v>
       </c>
@@ -13561,7 +14114,9 @@
       <c r="H100" s="7" t="s">
         <v>585</v>
       </c>
-      <c r="I100" s="5"/>
+      <c r="I100" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J100" s="5" t="s">
         <v>586</v>
       </c>
@@ -13576,7 +14131,7 @@
       </c>
       <c r="N100" s="6"/>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>562</v>
       </c>
@@ -13601,7 +14156,9 @@
       <c r="H101" s="7" t="s">
         <v>591</v>
       </c>
-      <c r="I101" s="5"/>
+      <c r="I101" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J101" s="5" t="s">
         <v>592</v>
       </c>
@@ -13616,7 +14173,7 @@
       </c>
       <c r="N101" s="6"/>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>562</v>
       </c>
@@ -13641,7 +14198,9 @@
       <c r="H102" s="7" t="s">
         <v>597</v>
       </c>
-      <c r="I102" s="5"/>
+      <c r="I102" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J102" s="5" t="s">
         <v>598</v>
       </c>
@@ -13656,7 +14215,7 @@
       </c>
       <c r="N102" s="6"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>562</v>
       </c>
@@ -13681,7 +14240,9 @@
       <c r="H103" s="7" t="s">
         <v>603</v>
       </c>
-      <c r="I103" s="5"/>
+      <c r="I103" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J103" s="5" t="s">
         <v>604</v>
       </c>
@@ -13696,7 +14257,7 @@
       </c>
       <c r="N103" s="6"/>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>562</v>
       </c>
@@ -13721,7 +14282,9 @@
       <c r="H104" s="7" t="s">
         <v>609</v>
       </c>
-      <c r="I104" s="5"/>
+      <c r="I104" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J104" s="5" t="s">
         <v>610</v>
       </c>
@@ -13736,7 +14299,7 @@
       </c>
       <c r="N104" s="6"/>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>562</v>
       </c>
@@ -13761,7 +14324,9 @@
       <c r="H105" s="7" t="s">
         <v>615</v>
       </c>
-      <c r="I105" s="5"/>
+      <c r="I105" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J105" s="5" t="s">
         <v>616</v>
       </c>
@@ -13776,7 +14341,7 @@
       </c>
       <c r="N105" s="6"/>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>562</v>
       </c>
@@ -13801,7 +14366,9 @@
       <c r="H106" s="7" t="s">
         <v>621</v>
       </c>
-      <c r="I106" s="5"/>
+      <c r="I106" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J106" s="5" t="s">
         <v>622</v>
       </c>
@@ -13816,7 +14383,7 @@
       </c>
       <c r="N106" s="6"/>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>562</v>
       </c>
@@ -13841,7 +14408,9 @@
       <c r="H107" s="7" t="s">
         <v>627</v>
       </c>
-      <c r="I107" s="5"/>
+      <c r="I107" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J107" s="5" t="s">
         <v>628</v>
       </c>
@@ -13856,7 +14425,7 @@
       </c>
       <c r="N107" s="6"/>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>562</v>
       </c>
@@ -13881,7 +14450,9 @@
       <c r="H108" s="7" t="s">
         <v>633</v>
       </c>
-      <c r="I108" s="5"/>
+      <c r="I108" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J108" s="5" t="s">
         <v>634</v>
       </c>
@@ -13896,7 +14467,7 @@
       </c>
       <c r="N108" s="6"/>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>635</v>
       </c>
@@ -13921,7 +14492,9 @@
       <c r="H109" s="5" t="s">
         <v>640</v>
       </c>
-      <c r="I109" s="5"/>
+      <c r="I109" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J109" s="5" t="s">
         <v>641</v>
       </c>
@@ -13936,7 +14509,7 @@
       </c>
       <c r="N109" s="6"/>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>642</v>
       </c>
@@ -13961,7 +14534,9 @@
       <c r="H110" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="I110" s="5"/>
+      <c r="I110" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J110" s="5" t="s">
         <v>648</v>
       </c>
@@ -13976,7 +14551,7 @@
       </c>
       <c r="N110" s="6"/>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>642</v>
       </c>
@@ -14001,7 +14576,9 @@
       <c r="H111" s="5" t="s">
         <v>653</v>
       </c>
-      <c r="I111" s="5"/>
+      <c r="I111" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J111" s="5" t="s">
         <v>654</v>
       </c>
@@ -14016,7 +14593,7 @@
       </c>
       <c r="N111" s="6"/>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>642</v>
       </c>
@@ -14041,7 +14618,9 @@
       <c r="H112" s="5" t="s">
         <v>659</v>
       </c>
-      <c r="I112" s="5"/>
+      <c r="I112" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J112" s="5" t="s">
         <v>660</v>
       </c>
@@ -14056,7 +14635,7 @@
       </c>
       <c r="N112" s="6"/>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>642</v>
       </c>
@@ -14081,7 +14660,9 @@
       <c r="H113" s="5" t="s">
         <v>665</v>
       </c>
-      <c r="I113" s="5"/>
+      <c r="I113" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J113" s="5" t="s">
         <v>666</v>
       </c>
@@ -14096,7 +14677,7 @@
       </c>
       <c r="N113" s="6"/>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>642</v>
       </c>
@@ -14121,7 +14702,9 @@
       <c r="H114" s="5" t="s">
         <v>671</v>
       </c>
-      <c r="I114" s="5"/>
+      <c r="I114" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J114" s="5" t="s">
         <v>672</v>
       </c>
@@ -14136,7 +14719,7 @@
       </c>
       <c r="N114" s="6"/>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>642</v>
       </c>
@@ -14161,7 +14744,9 @@
       <c r="H115" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="I115" s="5"/>
+      <c r="I115" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J115" s="5" t="s">
         <v>678</v>
       </c>
@@ -14176,7 +14761,7 @@
       </c>
       <c r="N115" s="6"/>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>642</v>
       </c>
@@ -14201,7 +14786,9 @@
       <c r="H116" s="5" t="s">
         <v>683</v>
       </c>
-      <c r="I116" s="5"/>
+      <c r="I116" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J116" s="5" t="s">
         <v>684</v>
       </c>
@@ -14216,7 +14803,7 @@
       </c>
       <c r="N116" s="6"/>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>642</v>
       </c>
@@ -14241,7 +14828,9 @@
       <c r="H117" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="I117" s="5"/>
+      <c r="I117" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J117" s="5" t="s">
         <v>690</v>
       </c>
@@ -14256,7 +14845,7 @@
       </c>
       <c r="N117" s="6"/>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>642</v>
       </c>
@@ -14281,7 +14870,9 @@
       <c r="H118" s="5" t="s">
         <v>695</v>
       </c>
-      <c r="I118" s="5"/>
+      <c r="I118" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J118" s="5" t="s">
         <v>696</v>
       </c>
@@ -14296,7 +14887,7 @@
       </c>
       <c r="N118" s="6"/>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>642</v>
       </c>
@@ -14321,7 +14912,9 @@
       <c r="H119" s="5" t="s">
         <v>701</v>
       </c>
-      <c r="I119" s="5"/>
+      <c r="I119" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="J119" s="5" t="s">
         <v>702</v>
       </c>
@@ -14336,7 +14929,7 @@
       </c>
       <c r="N119" s="6"/>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>642</v>
       </c>
@@ -14361,7 +14954,9 @@
       <c r="H120" s="5" t="s">
         <v>707</v>
       </c>
-      <c r="I120" s="5"/>
+      <c r="I120" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J120" s="5" t="s">
         <v>708</v>
       </c>
@@ -14376,7 +14971,7 @@
       </c>
       <c r="N120" s="6"/>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>642</v>
       </c>
@@ -14401,7 +14996,9 @@
       <c r="H121" s="5" t="s">
         <v>713</v>
       </c>
-      <c r="I121" s="5"/>
+      <c r="I121" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J121" s="5" t="s">
         <v>714</v>
       </c>
@@ -14416,7 +15013,7 @@
       </c>
       <c r="N121" s="6"/>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>642</v>
       </c>
@@ -14441,7 +15038,9 @@
       <c r="H122" s="5" t="s">
         <v>719</v>
       </c>
-      <c r="I122" s="5"/>
+      <c r="I122" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J122" s="5" t="s">
         <v>720</v>
       </c>
@@ -14456,7 +15055,7 @@
       </c>
       <c r="N122" s="6"/>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>642</v>
       </c>
@@ -14481,7 +15080,9 @@
       <c r="H123" s="5" t="s">
         <v>724</v>
       </c>
-      <c r="I123" s="5"/>
+      <c r="I123" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J123" s="5" t="s">
         <v>725</v>
       </c>
@@ -14496,7 +15097,7 @@
       </c>
       <c r="N123" s="6"/>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>642</v>
       </c>
@@ -14521,7 +15122,9 @@
       <c r="H124" s="5" t="s">
         <v>730</v>
       </c>
-      <c r="I124" s="5"/>
+      <c r="I124" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J124" s="5" t="s">
         <v>731</v>
       </c>
@@ -14536,7 +15139,7 @@
       </c>
       <c r="N124" s="6"/>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>642</v>
       </c>
@@ -14561,7 +15164,9 @@
       <c r="H125" s="5" t="s">
         <v>735</v>
       </c>
-      <c r="I125" s="5"/>
+      <c r="I125" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J125" s="5" t="s">
         <v>736</v>
       </c>
@@ -14576,7 +15181,7 @@
       </c>
       <c r="N125" s="6"/>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>642</v>
       </c>
@@ -14601,7 +15206,9 @@
       <c r="H126" s="5" t="s">
         <v>741</v>
       </c>
-      <c r="I126" s="5"/>
+      <c r="I126" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J126" s="5" t="s">
         <v>742</v>
       </c>
@@ -14616,7 +15223,7 @@
       </c>
       <c r="N126" s="6"/>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>642</v>
       </c>
@@ -14641,7 +15248,9 @@
       <c r="H127" s="5" t="s">
         <v>746</v>
       </c>
-      <c r="I127" s="5"/>
+      <c r="I127" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J127" s="5" t="s">
         <v>747</v>
       </c>
@@ -14656,7 +15265,7 @@
       </c>
       <c r="N127" s="6"/>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>642</v>
       </c>
@@ -14681,7 +15290,9 @@
       <c r="H128" s="5" t="s">
         <v>752</v>
       </c>
-      <c r="I128" s="5"/>
+      <c r="I128" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J128" s="5" t="s">
         <v>753</v>
       </c>
@@ -14696,7 +15307,7 @@
       </c>
       <c r="N128" s="6"/>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>642</v>
       </c>
@@ -14721,7 +15332,9 @@
       <c r="H129" s="5" t="s">
         <v>758</v>
       </c>
-      <c r="I129" s="5"/>
+      <c r="I129" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J129" s="5" t="s">
         <v>759</v>
       </c>
@@ -14736,7 +15349,7 @@
       </c>
       <c r="N129" s="6"/>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>642</v>
       </c>
@@ -14761,7 +15374,9 @@
       <c r="H130" s="5" t="s">
         <v>764</v>
       </c>
-      <c r="I130" s="5"/>
+      <c r="I130" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J130" s="5" t="s">
         <v>765</v>
       </c>
@@ -14776,7 +15391,7 @@
       </c>
       <c r="N130" s="6"/>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>642</v>
       </c>
@@ -14801,7 +15416,9 @@
       <c r="H131" s="5" t="s">
         <v>770</v>
       </c>
-      <c r="I131" s="5"/>
+      <c r="I131" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J131" s="5" t="s">
         <v>771</v>
       </c>
@@ -14816,7 +15433,7 @@
       </c>
       <c r="N131" s="6"/>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>642</v>
       </c>
@@ -14841,7 +15458,9 @@
       <c r="H132" s="5" t="s">
         <v>776</v>
       </c>
-      <c r="I132" s="5"/>
+      <c r="I132" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J132" s="5" t="s">
         <v>777</v>
       </c>
@@ -14856,7 +15475,7 @@
       </c>
       <c r="N132" s="6"/>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>642</v>
       </c>
@@ -14881,7 +15500,9 @@
       <c r="H133" s="5" t="s">
         <v>782</v>
       </c>
-      <c r="I133" s="5"/>
+      <c r="I133" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J133" s="5" t="s">
         <v>783</v>
       </c>
@@ -14896,7 +15517,7 @@
       </c>
       <c r="N133" s="6"/>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>642</v>
       </c>
@@ -14921,7 +15542,9 @@
       <c r="H134" s="5" t="s">
         <v>788</v>
       </c>
-      <c r="I134" s="5"/>
+      <c r="I134" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J134" s="5" t="s">
         <v>789</v>
       </c>
@@ -14936,7 +15559,7 @@
       </c>
       <c r="N134" s="6"/>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>642</v>
       </c>
@@ -14961,7 +15584,9 @@
       <c r="H135" s="5" t="s">
         <v>794</v>
       </c>
-      <c r="I135" s="5"/>
+      <c r="I135" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J135" s="5" t="s">
         <v>795</v>
       </c>
@@ -14976,7 +15601,7 @@
       </c>
       <c r="N135" s="6"/>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>642</v>
       </c>
@@ -15001,7 +15626,9 @@
       <c r="H136" s="5" t="s">
         <v>793</v>
       </c>
-      <c r="I136" s="5"/>
+      <c r="I136" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J136" s="5" t="s">
         <v>800</v>
       </c>
@@ -15016,7 +15643,7 @@
       </c>
       <c r="N136" s="6"/>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
         <v>642</v>
       </c>
@@ -15041,7 +15668,9 @@
       <c r="H137" s="5" t="s">
         <v>805</v>
       </c>
-      <c r="I137" s="5"/>
+      <c r="I137" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J137" s="5" t="s">
         <v>806</v>
       </c>
@@ -15056,7 +15685,7 @@
       </c>
       <c r="N137" s="6"/>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
         <v>642</v>
       </c>
@@ -15081,7 +15710,9 @@
       <c r="H138" s="5" t="s">
         <v>811</v>
       </c>
-      <c r="I138" s="5"/>
+      <c r="I138" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J138" s="5" t="s">
         <v>812</v>
       </c>
@@ -15096,7 +15727,7 @@
       </c>
       <c r="N138" s="6"/>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>642</v>
       </c>
@@ -15121,7 +15752,9 @@
       <c r="H139" s="5" t="s">
         <v>817</v>
       </c>
-      <c r="I139" s="5"/>
+      <c r="I139" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J139" s="5" t="s">
         <v>818</v>
       </c>
@@ -15136,7 +15769,7 @@
       </c>
       <c r="N139" s="6"/>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
         <v>642</v>
       </c>
@@ -15161,7 +15794,9 @@
       <c r="H140" s="5" t="s">
         <v>823</v>
       </c>
-      <c r="I140" s="5"/>
+      <c r="I140" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J140" s="5" t="s">
         <v>824</v>
       </c>
@@ -15176,7 +15811,7 @@
       </c>
       <c r="N140" s="6"/>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>642</v>
       </c>
@@ -15201,7 +15836,9 @@
       <c r="H141" s="5" t="s">
         <v>829</v>
       </c>
-      <c r="I141" s="5"/>
+      <c r="I141" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J141" s="5" t="s">
         <v>830</v>
       </c>
@@ -15216,7 +15853,7 @@
       </c>
       <c r="N141" s="6"/>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
         <v>642</v>
       </c>
@@ -15241,7 +15878,9 @@
       <c r="H142" s="5" t="s">
         <v>832</v>
       </c>
-      <c r="I142" s="5"/>
+      <c r="I142" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J142" s="5" t="s">
         <v>833</v>
       </c>
@@ -15256,7 +15895,7 @@
       </c>
       <c r="N142" s="6"/>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
         <v>642</v>
       </c>
@@ -15281,7 +15920,9 @@
       <c r="H143" s="5" t="s">
         <v>838</v>
       </c>
-      <c r="I143" s="5"/>
+      <c r="I143" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J143" s="5" t="s">
         <v>839</v>
       </c>
@@ -15296,7 +15937,7 @@
       </c>
       <c r="N143" s="6"/>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
         <v>642</v>
       </c>
@@ -15321,7 +15962,9 @@
       <c r="H144" s="5" t="s">
         <v>843</v>
       </c>
-      <c r="I144" s="5"/>
+      <c r="I144" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J144" s="5" t="s">
         <v>844</v>
       </c>
@@ -15336,7 +15979,7 @@
       </c>
       <c r="N144" s="6"/>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
         <v>642</v>
       </c>
@@ -15361,7 +16004,9 @@
       <c r="H145" s="5" t="s">
         <v>849</v>
       </c>
-      <c r="I145" s="5"/>
+      <c r="I145" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J145" s="5" t="s">
         <v>850</v>
       </c>
@@ -15376,7 +16021,7 @@
       </c>
       <c r="N145" s="6"/>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
         <v>642</v>
       </c>
@@ -15401,7 +16046,9 @@
       <c r="H146" s="5" t="s">
         <v>855</v>
       </c>
-      <c r="I146" s="5"/>
+      <c r="I146" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J146" s="5" t="s">
         <v>856</v>
       </c>
@@ -15416,7 +16063,7 @@
       </c>
       <c r="N146" s="6"/>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>642</v>
       </c>
@@ -15441,7 +16088,9 @@
       <c r="H147" s="5" t="s">
         <v>861</v>
       </c>
-      <c r="I147" s="5"/>
+      <c r="I147" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J147" s="5" t="s">
         <v>862</v>
       </c>
@@ -15456,7 +16105,7 @@
       </c>
       <c r="N147" s="6"/>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
         <v>642</v>
       </c>
@@ -15481,7 +16130,9 @@
       <c r="H148" s="5" t="s">
         <v>867</v>
       </c>
-      <c r="I148" s="5"/>
+      <c r="I148" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J148" s="5" t="s">
         <v>868</v>
       </c>
@@ -15496,7 +16147,7 @@
       </c>
       <c r="N148" s="6"/>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
         <v>642</v>
       </c>
@@ -15521,7 +16172,9 @@
       <c r="H149" s="5" t="s">
         <v>872</v>
       </c>
-      <c r="I149" s="5"/>
+      <c r="I149" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J149" s="5" t="s">
         <v>873</v>
       </c>
@@ -15536,7 +16189,7 @@
       </c>
       <c r="N149" s="6"/>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
         <v>642</v>
       </c>
@@ -15561,7 +16214,9 @@
       <c r="H150" s="5" t="s">
         <v>878</v>
       </c>
-      <c r="I150" s="5"/>
+      <c r="I150" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J150" s="5" t="s">
         <v>879</v>
       </c>
@@ -15576,7 +16231,7 @@
       </c>
       <c r="N150" s="6"/>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
         <v>642</v>
       </c>
@@ -15601,7 +16256,9 @@
       <c r="H151" s="5" t="s">
         <v>884</v>
       </c>
-      <c r="I151" s="5"/>
+      <c r="I151" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J151" s="5" t="s">
         <v>885</v>
       </c>
@@ -15616,7 +16273,7 @@
       </c>
       <c r="N151" s="6"/>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
         <v>642</v>
       </c>
@@ -15641,7 +16298,9 @@
       <c r="H152" s="5" t="s">
         <v>890</v>
       </c>
-      <c r="I152" s="5"/>
+      <c r="I152" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J152" s="5" t="s">
         <v>891</v>
       </c>
@@ -15656,7 +16315,7 @@
       </c>
       <c r="N152" s="6"/>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
         <v>642</v>
       </c>
@@ -15681,7 +16340,9 @@
       <c r="H153" s="8">
         <v>0.4</v>
       </c>
-      <c r="I153" s="5"/>
+      <c r="I153" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J153" s="5" t="s">
         <v>893</v>
       </c>
@@ -15696,7 +16357,7 @@
       </c>
       <c r="N153" s="6"/>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
         <v>642</v>
       </c>
@@ -15721,7 +16382,9 @@
       <c r="H154" s="5" t="s">
         <v>898</v>
       </c>
-      <c r="I154" s="5"/>
+      <c r="I154" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J154" s="5" t="s">
         <v>899</v>
       </c>
@@ -15736,7 +16399,7 @@
       </c>
       <c r="N154" s="6"/>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
         <v>642</v>
       </c>
@@ -15761,7 +16424,9 @@
       <c r="H155" s="5" t="s">
         <v>904</v>
       </c>
-      <c r="I155" s="5"/>
+      <c r="I155" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J155" s="5" t="s">
         <v>905</v>
       </c>
@@ -15776,7 +16441,7 @@
       </c>
       <c r="N155" s="6"/>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
         <v>642</v>
       </c>
@@ -15801,7 +16466,9 @@
       <c r="H156" s="5" t="s">
         <v>910</v>
       </c>
-      <c r="I156" s="5"/>
+      <c r="I156" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J156" s="5" t="s">
         <v>911</v>
       </c>
@@ -15816,7 +16483,7 @@
       </c>
       <c r="N156" s="6"/>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
         <v>642</v>
       </c>
@@ -15841,7 +16508,9 @@
       <c r="H157" s="5" t="s">
         <v>916</v>
       </c>
-      <c r="I157" s="5"/>
+      <c r="I157" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J157" s="5" t="s">
         <v>917</v>
       </c>
@@ -15856,7 +16525,7 @@
       </c>
       <c r="N157" s="6"/>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
         <v>642</v>
       </c>
@@ -15881,7 +16550,9 @@
       <c r="H158" s="5" t="s">
         <v>921</v>
       </c>
-      <c r="I158" s="5"/>
+      <c r="I158" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J158" s="5" t="s">
         <v>922</v>
       </c>
@@ -15895,6 +16566,12 @@
         <v>1</v>
       </c>
       <c r="N158" s="6"/>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I159" s="11"/>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I160" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/src/main/res/raw/modeltest_v1.xlsx
+++ b/app/src/main/res/raw/modeltest_v1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19540"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="metadata_modeltest" sheetId="3" r:id="rId1"/>
@@ -2891,7 +2891,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2933,6 +2933,11 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2948,7 +2953,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2982,11 +2987,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3016,6 +3049,12 @@
     <xf numFmtId="21" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3298,7 +3337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -3514,8 +3553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N160"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView topLeftCell="A131" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25:C158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3578,8 +3617,8 @@
       <c r="B2" s="3">
         <v>2016</v>
       </c>
-      <c r="C2" s="4">
-        <v>119</v>
+      <c r="C2" s="19">
+        <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>12</v>
@@ -3620,8 +3659,8 @@
       <c r="B3" s="3">
         <v>2016</v>
       </c>
-      <c r="C3" s="4">
-        <v>118</v>
+      <c r="C3" s="20">
+        <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>19</v>
@@ -3662,8 +3701,8 @@
       <c r="B4" s="3">
         <v>2016</v>
       </c>
-      <c r="C4" s="4">
-        <v>112</v>
+      <c r="C4" s="20">
+        <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>25</v>
@@ -3704,8 +3743,8 @@
       <c r="B5" s="3">
         <v>2016</v>
       </c>
-      <c r="C5" s="4">
-        <v>108</v>
+      <c r="C5" s="20">
+        <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>32</v>
@@ -3746,8 +3785,8 @@
       <c r="B6" s="3">
         <v>2016</v>
       </c>
-      <c r="C6" s="4">
-        <v>105</v>
+      <c r="C6" s="20">
+        <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>38</v>
@@ -3788,8 +3827,8 @@
       <c r="B7" s="3">
         <v>2016</v>
       </c>
-      <c r="C7" s="4">
-        <v>104</v>
+      <c r="C7" s="20">
+        <v>6</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>44</v>
@@ -3830,8 +3869,8 @@
       <c r="B8" s="3">
         <v>2016</v>
       </c>
-      <c r="C8" s="4">
-        <v>103</v>
+      <c r="C8" s="20">
+        <v>7</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>51</v>
@@ -3872,8 +3911,8 @@
       <c r="B9" s="3">
         <v>2016</v>
       </c>
-      <c r="C9" s="4">
-        <v>102</v>
+      <c r="C9" s="20">
+        <v>8</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>57</v>
@@ -3914,8 +3953,8 @@
       <c r="B10" s="3">
         <v>2016</v>
       </c>
-      <c r="C10" s="4">
-        <v>101</v>
+      <c r="C10" s="20">
+        <v>9</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>61</v>
@@ -3956,8 +3995,8 @@
       <c r="B11" s="3">
         <v>2016</v>
       </c>
-      <c r="C11" s="4">
-        <v>100</v>
+      <c r="C11" s="20">
+        <v>10</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>68</v>
@@ -3998,8 +4037,8 @@
       <c r="B12" s="3">
         <v>2016</v>
       </c>
-      <c r="C12" s="4">
-        <v>99</v>
+      <c r="C12" s="20">
+        <v>11</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>74</v>
@@ -4040,8 +4079,8 @@
       <c r="B13" s="3">
         <v>2016</v>
       </c>
-      <c r="C13" s="4">
-        <v>97</v>
+      <c r="C13" s="20">
+        <v>12</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>81</v>
@@ -4082,8 +4121,8 @@
       <c r="B14" s="3">
         <v>2016</v>
       </c>
-      <c r="C14" s="4">
-        <v>95</v>
+      <c r="C14" s="20">
+        <v>13</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>87</v>
@@ -4124,8 +4163,8 @@
       <c r="B15" s="3">
         <v>2016</v>
       </c>
-      <c r="C15" s="4">
-        <v>81</v>
+      <c r="C15" s="20">
+        <v>14</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>90</v>
@@ -4166,8 +4205,8 @@
       <c r="B16" s="3">
         <v>2016</v>
       </c>
-      <c r="C16" s="4">
-        <v>78</v>
+      <c r="C16" s="20">
+        <v>15</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>96</v>
@@ -4208,8 +4247,8 @@
       <c r="B17" s="3">
         <v>2016</v>
       </c>
-      <c r="C17" s="4">
-        <v>4</v>
+      <c r="C17" s="20">
+        <v>16</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>98</v>
@@ -4250,8 +4289,8 @@
       <c r="B18" s="3">
         <v>2015</v>
       </c>
-      <c r="C18" s="4">
-        <v>3</v>
+      <c r="C18" s="20">
+        <v>17</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>105</v>
@@ -4292,8 +4331,8 @@
       <c r="B19" s="3">
         <v>2015</v>
       </c>
-      <c r="C19" s="4">
-        <v>32</v>
+      <c r="C19" s="20">
+        <v>18</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>108</v>
@@ -4334,8 +4373,8 @@
       <c r="B20" s="3">
         <v>2015</v>
       </c>
-      <c r="C20" s="4">
-        <v>40</v>
+      <c r="C20" s="20">
+        <v>19</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>114</v>
@@ -4376,8 +4415,8 @@
       <c r="B21" s="3">
         <v>2015</v>
       </c>
-      <c r="C21" s="4">
-        <v>42</v>
+      <c r="C21" s="20">
+        <v>20</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>120</v>
@@ -4418,8 +4457,8 @@
       <c r="B22" s="3">
         <v>2015</v>
       </c>
-      <c r="C22" s="4">
-        <v>66</v>
+      <c r="C22" s="20">
+        <v>21</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>126</v>
@@ -4460,8 +4499,8 @@
       <c r="B23" s="3">
         <v>2015</v>
       </c>
-      <c r="C23" s="4">
-        <v>67</v>
+      <c r="C23" s="20">
+        <v>22</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>132</v>
@@ -4502,8 +4541,8 @@
       <c r="B24" s="3">
         <v>2015</v>
       </c>
-      <c r="C24" s="4">
-        <v>76</v>
+      <c r="C24" s="20">
+        <v>23</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>138</v>
@@ -4544,8 +4583,8 @@
       <c r="B25" s="3">
         <v>2015</v>
       </c>
-      <c r="C25" s="4">
-        <v>77</v>
+      <c r="C25" s="20">
+        <v>24</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>144</v>
@@ -4586,8 +4625,8 @@
       <c r="B26" s="3">
         <v>2015</v>
       </c>
-      <c r="C26" s="4">
-        <v>78</v>
+      <c r="C26" s="20">
+        <v>25</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>150</v>
@@ -4628,8 +4667,8 @@
       <c r="B27" s="3">
         <v>2015</v>
       </c>
-      <c r="C27" s="4">
-        <v>79</v>
+      <c r="C27" s="20">
+        <v>26</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>156</v>
@@ -4670,8 +4709,8 @@
       <c r="B28" s="3">
         <v>2015</v>
       </c>
-      <c r="C28" s="4">
-        <v>80</v>
+      <c r="C28" s="20">
+        <v>27</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>162</v>
@@ -4712,8 +4751,8 @@
       <c r="B29" s="3">
         <v>2015</v>
       </c>
-      <c r="C29" s="4">
-        <v>81</v>
+      <c r="C29" s="20">
+        <v>28</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>168</v>
@@ -4754,8 +4793,8 @@
       <c r="B30" s="3">
         <v>2015</v>
       </c>
-      <c r="C30" s="4">
-        <v>82</v>
+      <c r="C30" s="20">
+        <v>29</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>174</v>
@@ -4796,8 +4835,8 @@
       <c r="B31" s="3">
         <v>2015</v>
       </c>
-      <c r="C31" s="4">
-        <v>83</v>
+      <c r="C31" s="20">
+        <v>30</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>180</v>
@@ -4838,8 +4877,8 @@
       <c r="B32" s="3">
         <v>2015</v>
       </c>
-      <c r="C32" s="4">
-        <v>84</v>
+      <c r="C32" s="20">
+        <v>31</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>186</v>
@@ -4880,8 +4919,8 @@
       <c r="B33" s="3">
         <v>2015</v>
       </c>
-      <c r="C33" s="4">
-        <v>85</v>
+      <c r="C33" s="20">
+        <v>32</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>192</v>
@@ -4922,8 +4961,8 @@
       <c r="B34" s="3">
         <v>2015</v>
       </c>
-      <c r="C34" s="4">
-        <v>86</v>
+      <c r="C34" s="20">
+        <v>33</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>198</v>
@@ -4964,8 +5003,8 @@
       <c r="B35" s="3">
         <v>2015</v>
       </c>
-      <c r="C35" s="4">
-        <v>87</v>
+      <c r="C35" s="20">
+        <v>34</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>204</v>
@@ -5006,8 +5045,8 @@
       <c r="B36" s="3">
         <v>2015</v>
       </c>
-      <c r="C36" s="4">
-        <v>88</v>
+      <c r="C36" s="20">
+        <v>35</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>210</v>
@@ -5048,8 +5087,8 @@
       <c r="B37" s="3">
         <v>2015</v>
       </c>
-      <c r="C37" s="4">
-        <v>89</v>
+      <c r="C37" s="20">
+        <v>36</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>216</v>
@@ -5090,8 +5129,8 @@
       <c r="B38" s="3">
         <v>2015</v>
       </c>
-      <c r="C38" s="4">
-        <v>90</v>
+      <c r="C38" s="20">
+        <v>37</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>222</v>
@@ -5132,8 +5171,8 @@
       <c r="B39" s="3">
         <v>2015</v>
       </c>
-      <c r="C39" s="4">
-        <v>91</v>
+      <c r="C39" s="20">
+        <v>38</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>224</v>
@@ -5174,8 +5213,8 @@
       <c r="B40" s="3">
         <v>2015</v>
       </c>
-      <c r="C40" s="4">
-        <v>92</v>
+      <c r="C40" s="20">
+        <v>39</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>230</v>
@@ -5216,8 +5255,8 @@
       <c r="B41" s="3">
         <v>2015</v>
       </c>
-      <c r="C41" s="4">
-        <v>93</v>
+      <c r="C41" s="20">
+        <v>40</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>236</v>
@@ -5258,8 +5297,8 @@
       <c r="B42" s="3">
         <v>2015</v>
       </c>
-      <c r="C42" s="4">
-        <v>94</v>
+      <c r="C42" s="20">
+        <v>41</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>242</v>
@@ -5300,8 +5339,8 @@
       <c r="B43" s="3">
         <v>2015</v>
       </c>
-      <c r="C43" s="4">
-        <v>95</v>
+      <c r="C43" s="20">
+        <v>42</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>248</v>
@@ -5342,8 +5381,8 @@
       <c r="B44" s="3">
         <v>2015</v>
       </c>
-      <c r="C44" s="4">
-        <v>96</v>
+      <c r="C44" s="20">
+        <v>43</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>254</v>
@@ -5384,8 +5423,8 @@
       <c r="B45" s="3">
         <v>2015</v>
       </c>
-      <c r="C45" s="4">
-        <v>97</v>
+      <c r="C45" s="20">
+        <v>44</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>260</v>
@@ -5426,8 +5465,8 @@
       <c r="B46" s="3">
         <v>2015</v>
       </c>
-      <c r="C46" s="4">
-        <v>98</v>
+      <c r="C46" s="20">
+        <v>45</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>267</v>
@@ -5468,8 +5507,8 @@
       <c r="B47" s="3">
         <v>2015</v>
       </c>
-      <c r="C47" s="4">
-        <v>99</v>
+      <c r="C47" s="20">
+        <v>46</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>273</v>
@@ -5510,8 +5549,8 @@
       <c r="B48" s="3">
         <v>2015</v>
       </c>
-      <c r="C48" s="4">
-        <v>100</v>
+      <c r="C48" s="20">
+        <v>47</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>279</v>
@@ -5552,8 +5591,8 @@
       <c r="B49" s="3">
         <v>2015</v>
       </c>
-      <c r="C49" s="4">
-        <v>104</v>
+      <c r="C49" s="20">
+        <v>48</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>285</v>
@@ -5594,8 +5633,8 @@
       <c r="B50" s="3">
         <v>2015</v>
       </c>
-      <c r="C50" s="4">
-        <v>1</v>
+      <c r="C50" s="20">
+        <v>49</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>292</v>
@@ -5636,8 +5675,8 @@
       <c r="B51" s="3">
         <v>2015</v>
       </c>
-      <c r="C51" s="4">
-        <v>2</v>
+      <c r="C51" s="20">
+        <v>50</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>298</v>
@@ -5678,8 +5717,8 @@
       <c r="B52" s="3">
         <v>2015</v>
       </c>
-      <c r="C52" s="4">
-        <v>3</v>
+      <c r="C52" s="20">
+        <v>51</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>304</v>
@@ -5720,8 +5759,8 @@
       <c r="B53" s="3">
         <v>2015</v>
       </c>
-      <c r="C53" s="4">
-        <v>4</v>
+      <c r="C53" s="20">
+        <v>52</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>310</v>
@@ -5762,8 +5801,8 @@
       <c r="B54" s="3">
         <v>2015</v>
       </c>
-      <c r="C54" s="4">
-        <v>5</v>
+      <c r="C54" s="20">
+        <v>53</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>316</v>
@@ -5804,8 +5843,8 @@
       <c r="B55" s="3">
         <v>2015</v>
       </c>
-      <c r="C55" s="4">
-        <v>13</v>
+      <c r="C55" s="20">
+        <v>54</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>322</v>
@@ -5846,8 +5885,8 @@
       <c r="B56" s="3">
         <v>2015</v>
       </c>
-      <c r="C56" s="4">
-        <v>96</v>
+      <c r="C56" s="20">
+        <v>55</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>328</v>
@@ -5888,8 +5927,8 @@
       <c r="B57" s="3">
         <v>2015</v>
       </c>
-      <c r="C57" s="4">
-        <v>97</v>
+      <c r="C57" s="20">
+        <v>56</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>334</v>
@@ -5930,8 +5969,8 @@
       <c r="B58" s="3">
         <v>2015</v>
       </c>
-      <c r="C58" s="4">
-        <v>98</v>
+      <c r="C58" s="20">
+        <v>57</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>340</v>
@@ -5972,8 +6011,8 @@
       <c r="B59" s="3">
         <v>2015</v>
       </c>
-      <c r="C59" s="4">
-        <v>99</v>
+      <c r="C59" s="20">
+        <v>58</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>346</v>
@@ -6014,8 +6053,8 @@
       <c r="B60" s="3">
         <v>2015</v>
       </c>
-      <c r="C60" s="4">
-        <v>100</v>
+      <c r="C60" s="20">
+        <v>59</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>352</v>
@@ -6056,8 +6095,8 @@
       <c r="B61" s="3">
         <v>2015</v>
       </c>
-      <c r="C61" s="4">
-        <v>102</v>
+      <c r="C61" s="20">
+        <v>60</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>358</v>
@@ -6098,8 +6137,8 @@
       <c r="B62" s="3">
         <v>2015</v>
       </c>
-      <c r="C62" s="4">
-        <v>103</v>
+      <c r="C62" s="20">
+        <v>61</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>364</v>
@@ -6140,8 +6179,8 @@
       <c r="B63" s="3">
         <v>2015</v>
       </c>
-      <c r="C63" s="4">
-        <v>104</v>
+      <c r="C63" s="20">
+        <v>62</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>370</v>
@@ -6182,8 +6221,8 @@
       <c r="B64" s="3">
         <v>2015</v>
       </c>
-      <c r="C64" s="4">
-        <v>105</v>
+      <c r="C64" s="20">
+        <v>63</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>376</v>
@@ -6224,8 +6263,8 @@
       <c r="B65" s="3">
         <v>2015</v>
       </c>
-      <c r="C65" s="4">
-        <v>106</v>
+      <c r="C65" s="20">
+        <v>64</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>376</v>
@@ -6266,8 +6305,8 @@
       <c r="B66" s="3">
         <v>2015</v>
       </c>
-      <c r="C66" s="4">
-        <v>109</v>
+      <c r="C66" s="20">
+        <v>65</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>387</v>
@@ -6308,8 +6347,8 @@
       <c r="B67" s="3">
         <v>2015</v>
       </c>
-      <c r="C67" s="4">
-        <v>110</v>
+      <c r="C67" s="20">
+        <v>66</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>393</v>
@@ -6350,8 +6389,8 @@
       <c r="B68" s="3">
         <v>2015</v>
       </c>
-      <c r="C68" s="4">
-        <v>111</v>
+      <c r="C68" s="20">
+        <v>67</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>399</v>
@@ -6392,8 +6431,8 @@
       <c r="B69" s="3">
         <v>2015</v>
       </c>
-      <c r="C69" s="4">
-        <v>112</v>
+      <c r="C69" s="20">
+        <v>68</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>376</v>
@@ -6434,8 +6473,8 @@
       <c r="B70" s="3">
         <v>2015</v>
       </c>
-      <c r="C70" s="4">
-        <v>113</v>
+      <c r="C70" s="20">
+        <v>69</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>410</v>
@@ -6476,8 +6515,8 @@
       <c r="B71" s="3">
         <v>2015</v>
       </c>
-      <c r="C71" s="4">
-        <v>115</v>
+      <c r="C71" s="20">
+        <v>70</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>416</v>
@@ -6518,8 +6557,8 @@
       <c r="B72" s="3">
         <v>2015</v>
       </c>
-      <c r="C72" s="4">
-        <v>116</v>
+      <c r="C72" s="20">
+        <v>71</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>376</v>
@@ -6560,8 +6599,8 @@
       <c r="B73" s="3">
         <v>2015</v>
       </c>
-      <c r="C73" s="4">
-        <v>117</v>
+      <c r="C73" s="20">
+        <v>72</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>376</v>
@@ -6602,8 +6641,8 @@
       <c r="B74" s="3">
         <v>2015</v>
       </c>
-      <c r="C74" s="4">
-        <v>119</v>
+      <c r="C74" s="20">
+        <v>73</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>432</v>
@@ -6644,8 +6683,8 @@
       <c r="B75" s="3">
         <v>2015</v>
       </c>
-      <c r="C75" s="4">
-        <v>8</v>
+      <c r="C75" s="20">
+        <v>74</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>439</v>
@@ -6686,8 +6725,8 @@
       <c r="B76" s="3">
         <v>2015</v>
       </c>
-      <c r="C76" s="4">
-        <v>13</v>
+      <c r="C76" s="20">
+        <v>75</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>445</v>
@@ -6728,8 +6767,8 @@
       <c r="B77" s="3">
         <v>2015</v>
       </c>
-      <c r="C77" s="4">
-        <v>17</v>
+      <c r="C77" s="20">
+        <v>76</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>451</v>
@@ -6770,8 +6809,8 @@
       <c r="B78" s="3">
         <v>2015</v>
       </c>
-      <c r="C78" s="4">
-        <v>19</v>
+      <c r="C78" s="20">
+        <v>77</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>457</v>
@@ -6812,8 +6851,8 @@
       <c r="B79" s="3">
         <v>2015</v>
       </c>
-      <c r="C79" s="4">
-        <v>24</v>
+      <c r="C79" s="20">
+        <v>78</v>
       </c>
       <c r="D79" s="5" t="s">
         <v>463</v>
@@ -6854,8 +6893,8 @@
       <c r="B80" s="3">
         <v>2015</v>
       </c>
-      <c r="C80" s="4">
-        <v>37</v>
+      <c r="C80" s="20">
+        <v>79</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>465</v>
@@ -6896,8 +6935,8 @@
       <c r="B81" s="3">
         <v>2015</v>
       </c>
-      <c r="C81" s="4">
-        <v>39</v>
+      <c r="C81" s="20">
+        <v>80</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>471</v>
@@ -6938,8 +6977,8 @@
       <c r="B82" s="3">
         <v>2015</v>
       </c>
-      <c r="C82" s="4">
-        <v>41</v>
+      <c r="C82" s="20">
+        <v>81</v>
       </c>
       <c r="D82" s="5" t="s">
         <v>477</v>
@@ -6980,8 +7019,8 @@
       <c r="B83" s="3">
         <v>2015</v>
       </c>
-      <c r="C83" s="4">
-        <v>42</v>
+      <c r="C83" s="20">
+        <v>82</v>
       </c>
       <c r="D83" s="5" t="s">
         <v>483</v>
@@ -7022,8 +7061,8 @@
       <c r="B84" s="3">
         <v>2015</v>
       </c>
-      <c r="C84" s="4">
-        <v>43</v>
+      <c r="C84" s="20">
+        <v>83</v>
       </c>
       <c r="D84" s="5" t="s">
         <v>485</v>
@@ -7064,8 +7103,8 @@
       <c r="B85" s="3">
         <v>2015</v>
       </c>
-      <c r="C85" s="4">
-        <v>52</v>
+      <c r="C85" s="20">
+        <v>84</v>
       </c>
       <c r="D85" s="5" t="s">
         <v>491</v>
@@ -7106,8 +7145,8 @@
       <c r="B86" s="3">
         <v>2015</v>
       </c>
-      <c r="C86" s="4">
-        <v>53</v>
+      <c r="C86" s="20">
+        <v>85</v>
       </c>
       <c r="D86" s="5" t="s">
         <v>497</v>
@@ -7148,8 +7187,8 @@
       <c r="B87" s="3">
         <v>2015</v>
       </c>
-      <c r="C87" s="4">
-        <v>63</v>
+      <c r="C87" s="20">
+        <v>86</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>502</v>
@@ -7190,8 +7229,8 @@
       <c r="B88" s="3">
         <v>2015</v>
       </c>
-      <c r="C88" s="4">
-        <v>65</v>
+      <c r="C88" s="20">
+        <v>87</v>
       </c>
       <c r="D88" s="5" t="s">
         <v>508</v>
@@ -7232,8 +7271,8 @@
       <c r="B89" s="3">
         <v>2015</v>
       </c>
-      <c r="C89" s="4">
-        <v>7</v>
+      <c r="C89" s="20">
+        <v>88</v>
       </c>
       <c r="D89" s="5" t="s">
         <v>514</v>
@@ -7274,8 +7313,8 @@
       <c r="B90" s="3">
         <v>2015</v>
       </c>
-      <c r="C90" s="4">
-        <v>69</v>
+      <c r="C90" s="20">
+        <v>89</v>
       </c>
       <c r="D90" s="5" t="s">
         <v>520</v>
@@ -7316,8 +7355,8 @@
       <c r="B91" s="3">
         <v>2015</v>
       </c>
-      <c r="C91" s="4">
-        <v>91</v>
+      <c r="C91" s="20">
+        <v>90</v>
       </c>
       <c r="D91" s="5" t="s">
         <v>526</v>
@@ -7358,8 +7397,8 @@
       <c r="B92" s="3">
         <v>2015</v>
       </c>
-      <c r="C92" s="4">
-        <v>92</v>
+      <c r="C92" s="20">
+        <v>91</v>
       </c>
       <c r="D92" s="5" t="s">
         <v>532</v>
@@ -7400,8 +7439,8 @@
       <c r="B93" s="3">
         <v>2015</v>
       </c>
-      <c r="C93" s="4">
-        <v>93</v>
+      <c r="C93" s="20">
+        <v>92</v>
       </c>
       <c r="D93" s="5" t="s">
         <v>538</v>
@@ -7442,8 +7481,8 @@
       <c r="B94" s="3">
         <v>2015</v>
       </c>
-      <c r="C94" s="4">
-        <v>96</v>
+      <c r="C94" s="20">
+        <v>93</v>
       </c>
       <c r="D94" s="5" t="s">
         <v>544</v>
@@ -7484,8 +7523,8 @@
       <c r="B95" s="3">
         <v>2015</v>
       </c>
-      <c r="C95" s="4">
-        <v>99</v>
+      <c r="C95" s="20">
+        <v>94</v>
       </c>
       <c r="D95" s="5" t="s">
         <v>550</v>
@@ -7526,8 +7565,8 @@
       <c r="B96" s="3">
         <v>2015</v>
       </c>
-      <c r="C96" s="4">
-        <v>113</v>
+      <c r="C96" s="20">
+        <v>95</v>
       </c>
       <c r="D96" s="5" t="s">
         <v>556</v>
@@ -7568,8 +7607,8 @@
       <c r="B97" s="3">
         <v>2015</v>
       </c>
-      <c r="C97" s="4">
-        <v>1</v>
+      <c r="C97" s="20">
+        <v>96</v>
       </c>
       <c r="D97" s="7" t="s">
         <v>563</v>
@@ -7610,8 +7649,8 @@
       <c r="B98" s="3">
         <v>2015</v>
       </c>
-      <c r="C98" s="4">
-        <v>2</v>
+      <c r="C98" s="20">
+        <v>97</v>
       </c>
       <c r="D98" s="7" t="s">
         <v>569</v>
@@ -7652,8 +7691,8 @@
       <c r="B99" s="3">
         <v>2015</v>
       </c>
-      <c r="C99" s="4">
-        <v>3</v>
+      <c r="C99" s="20">
+        <v>98</v>
       </c>
       <c r="D99" s="7" t="s">
         <v>575</v>
@@ -7694,8 +7733,8 @@
       <c r="B100" s="3">
         <v>2015</v>
       </c>
-      <c r="C100" s="4">
-        <v>4</v>
+      <c r="C100" s="20">
+        <v>99</v>
       </c>
       <c r="D100" s="7" t="s">
         <v>581</v>
@@ -7736,8 +7775,8 @@
       <c r="B101" s="3">
         <v>2015</v>
       </c>
-      <c r="C101" s="4">
-        <v>5</v>
+      <c r="C101" s="20">
+        <v>100</v>
       </c>
       <c r="D101" s="7" t="s">
         <v>587</v>
@@ -7778,8 +7817,8 @@
       <c r="B102" s="3">
         <v>2015</v>
       </c>
-      <c r="C102" s="4">
-        <v>6</v>
+      <c r="C102" s="20">
+        <v>101</v>
       </c>
       <c r="D102" s="7" t="s">
         <v>593</v>
@@ -7820,8 +7859,8 @@
       <c r="B103" s="3">
         <v>2015</v>
       </c>
-      <c r="C103" s="4">
-        <v>7</v>
+      <c r="C103" s="20">
+        <v>102</v>
       </c>
       <c r="D103" s="7" t="s">
         <v>599</v>
@@ -7862,8 +7901,8 @@
       <c r="B104" s="3">
         <v>2015</v>
       </c>
-      <c r="C104" s="4">
-        <v>8</v>
+      <c r="C104" s="20">
+        <v>103</v>
       </c>
       <c r="D104" s="7" t="s">
         <v>605</v>
@@ -7904,8 +7943,8 @@
       <c r="B105" s="3">
         <v>2015</v>
       </c>
-      <c r="C105" s="4">
-        <v>9</v>
+      <c r="C105" s="20">
+        <v>104</v>
       </c>
       <c r="D105" s="7" t="s">
         <v>611</v>
@@ -7946,8 +7985,8 @@
       <c r="B106" s="3">
         <v>2015</v>
       </c>
-      <c r="C106" s="4">
-        <v>10</v>
+      <c r="C106" s="20">
+        <v>105</v>
       </c>
       <c r="D106" s="7" t="s">
         <v>617</v>
@@ -7988,8 +8027,8 @@
       <c r="B107" s="3">
         <v>2015</v>
       </c>
-      <c r="C107" s="4">
-        <v>11</v>
+      <c r="C107" s="20">
+        <v>106</v>
       </c>
       <c r="D107" s="7" t="s">
         <v>623</v>
@@ -8030,8 +8069,8 @@
       <c r="B108" s="3">
         <v>2015</v>
       </c>
-      <c r="C108" s="4">
-        <v>12</v>
+      <c r="C108" s="20">
+        <v>107</v>
       </c>
       <c r="D108" s="7" t="s">
         <v>629</v>
@@ -8072,8 +8111,8 @@
       <c r="B109" s="3">
         <v>2015</v>
       </c>
-      <c r="C109" s="4">
-        <v>112</v>
+      <c r="C109" s="20">
+        <v>108</v>
       </c>
       <c r="D109" s="5" t="s">
         <v>636</v>
@@ -8114,8 +8153,8 @@
       <c r="B110" s="3">
         <v>2015</v>
       </c>
-      <c r="C110" s="4">
-        <v>54</v>
+      <c r="C110" s="20">
+        <v>109</v>
       </c>
       <c r="D110" s="5" t="s">
         <v>643</v>
@@ -8156,8 +8195,8 @@
       <c r="B111" s="3">
         <v>2015</v>
       </c>
-      <c r="C111" s="4">
-        <v>55</v>
+      <c r="C111" s="20">
+        <v>110</v>
       </c>
       <c r="D111" s="5" t="s">
         <v>649</v>
@@ -8198,8 +8237,8 @@
       <c r="B112" s="3">
         <v>2015</v>
       </c>
-      <c r="C112" s="4">
-        <v>56</v>
+      <c r="C112" s="20">
+        <v>111</v>
       </c>
       <c r="D112" s="5" t="s">
         <v>655</v>
@@ -8240,8 +8279,8 @@
       <c r="B113" s="3">
         <v>2015</v>
       </c>
-      <c r="C113" s="4">
-        <v>57</v>
+      <c r="C113" s="20">
+        <v>112</v>
       </c>
       <c r="D113" s="5" t="s">
         <v>661</v>
@@ -8282,8 +8321,8 @@
       <c r="B114" s="3">
         <v>2015</v>
       </c>
-      <c r="C114" s="4">
-        <v>58</v>
+      <c r="C114" s="20">
+        <v>113</v>
       </c>
       <c r="D114" s="5" t="s">
         <v>667</v>
@@ -8324,8 +8363,8 @@
       <c r="B115" s="3">
         <v>2015</v>
       </c>
-      <c r="C115" s="4">
-        <v>59</v>
+      <c r="C115" s="20">
+        <v>114</v>
       </c>
       <c r="D115" s="5" t="s">
         <v>673</v>
@@ -8366,8 +8405,8 @@
       <c r="B116" s="3">
         <v>2015</v>
       </c>
-      <c r="C116" s="4">
-        <v>60</v>
+      <c r="C116" s="20">
+        <v>115</v>
       </c>
       <c r="D116" s="5" t="s">
         <v>679</v>
@@ -8408,8 +8447,8 @@
       <c r="B117" s="3">
         <v>2015</v>
       </c>
-      <c r="C117" s="4">
-        <v>61</v>
+      <c r="C117" s="20">
+        <v>116</v>
       </c>
       <c r="D117" s="5" t="s">
         <v>685</v>
@@ -8450,8 +8489,8 @@
       <c r="B118" s="3">
         <v>2015</v>
       </c>
-      <c r="C118" s="4">
-        <v>62</v>
+      <c r="C118" s="20">
+        <v>117</v>
       </c>
       <c r="D118" s="5" t="s">
         <v>691</v>
@@ -8492,8 +8531,8 @@
       <c r="B119" s="3">
         <v>2015</v>
       </c>
-      <c r="C119" s="4">
-        <v>63</v>
+      <c r="C119" s="20">
+        <v>118</v>
       </c>
       <c r="D119" s="5" t="s">
         <v>697</v>
@@ -8534,8 +8573,8 @@
       <c r="B120" s="3">
         <v>2015</v>
       </c>
-      <c r="C120" s="4">
-        <v>64</v>
+      <c r="C120" s="20">
+        <v>119</v>
       </c>
       <c r="D120" s="5" t="s">
         <v>703</v>
@@ -8576,8 +8615,8 @@
       <c r="B121" s="3">
         <v>2015</v>
       </c>
-      <c r="C121" s="4">
-        <v>65</v>
+      <c r="C121" s="20">
+        <v>120</v>
       </c>
       <c r="D121" s="5" t="s">
         <v>709</v>
@@ -8618,8 +8657,8 @@
       <c r="B122" s="3">
         <v>2015</v>
       </c>
-      <c r="C122" s="4">
-        <v>81</v>
+      <c r="C122" s="20">
+        <v>121</v>
       </c>
       <c r="D122" s="5" t="s">
         <v>715</v>
@@ -8660,8 +8699,8 @@
       <c r="B123" s="3">
         <v>2015</v>
       </c>
-      <c r="C123" s="4">
-        <v>82</v>
+      <c r="C123" s="20">
+        <v>122</v>
       </c>
       <c r="D123" s="5" t="s">
         <v>376</v>
@@ -8702,8 +8741,8 @@
       <c r="B124" s="3">
         <v>2015</v>
       </c>
-      <c r="C124" s="4">
-        <v>83</v>
+      <c r="C124" s="20">
+        <v>123</v>
       </c>
       <c r="D124" s="5" t="s">
         <v>726</v>
@@ -8744,8 +8783,8 @@
       <c r="B125" s="3">
         <v>2015</v>
       </c>
-      <c r="C125" s="4">
-        <v>84</v>
+      <c r="C125" s="20">
+        <v>124</v>
       </c>
       <c r="D125" s="5" t="s">
         <v>358</v>
@@ -8786,8 +8825,8 @@
       <c r="B126" s="3">
         <v>2015</v>
       </c>
-      <c r="C126" s="4">
-        <v>85</v>
+      <c r="C126" s="20">
+        <v>125</v>
       </c>
       <c r="D126" s="5" t="s">
         <v>737</v>
@@ -8828,8 +8867,8 @@
       <c r="B127" s="3">
         <v>2015</v>
       </c>
-      <c r="C127" s="4">
-        <v>86</v>
+      <c r="C127" s="20">
+        <v>126</v>
       </c>
       <c r="D127" s="5" t="s">
         <v>743</v>
@@ -8870,8 +8909,8 @@
       <c r="B128" s="3">
         <v>2015</v>
       </c>
-      <c r="C128" s="4">
-        <v>87</v>
+      <c r="C128" s="20">
+        <v>127</v>
       </c>
       <c r="D128" s="5" t="s">
         <v>748</v>
@@ -8912,8 +8951,8 @@
       <c r="B129" s="3">
         <v>2015</v>
       </c>
-      <c r="C129" s="4">
-        <v>88</v>
+      <c r="C129" s="20">
+        <v>128</v>
       </c>
       <c r="D129" s="5" t="s">
         <v>754</v>
@@ -8954,8 +8993,8 @@
       <c r="B130" s="3">
         <v>2015</v>
       </c>
-      <c r="C130" s="4">
-        <v>89</v>
+      <c r="C130" s="20">
+        <v>129</v>
       </c>
       <c r="D130" s="5" t="s">
         <v>760</v>
@@ -8996,8 +9035,8 @@
       <c r="B131" s="3">
         <v>2015</v>
       </c>
-      <c r="C131" s="4">
-        <v>90</v>
+      <c r="C131" s="20">
+        <v>130</v>
       </c>
       <c r="D131" s="5" t="s">
         <v>766</v>
@@ -9038,8 +9077,8 @@
       <c r="B132" s="3">
         <v>2015</v>
       </c>
-      <c r="C132" s="4">
-        <v>91</v>
+      <c r="C132" s="20">
+        <v>131</v>
       </c>
       <c r="D132" s="5" t="s">
         <v>772</v>
@@ -9080,8 +9119,8 @@
       <c r="B133" s="3">
         <v>2015</v>
       </c>
-      <c r="C133" s="4">
-        <v>92</v>
+      <c r="C133" s="20">
+        <v>132</v>
       </c>
       <c r="D133" s="5" t="s">
         <v>778</v>
@@ -9122,8 +9161,8 @@
       <c r="B134" s="3">
         <v>2015</v>
       </c>
-      <c r="C134" s="4">
-        <v>93</v>
+      <c r="C134" s="20">
+        <v>133</v>
       </c>
       <c r="D134" s="5" t="s">
         <v>784</v>
@@ -9164,8 +9203,8 @@
       <c r="B135" s="3">
         <v>2015</v>
       </c>
-      <c r="C135" s="4">
-        <v>94</v>
+      <c r="C135" s="20">
+        <v>134</v>
       </c>
       <c r="D135" s="5" t="s">
         <v>790</v>
@@ -9206,8 +9245,8 @@
       <c r="B136" s="3">
         <v>2015</v>
       </c>
-      <c r="C136" s="4">
-        <v>95</v>
+      <c r="C136" s="20">
+        <v>135</v>
       </c>
       <c r="D136" s="5" t="s">
         <v>796</v>
@@ -9248,8 +9287,8 @@
       <c r="B137" s="3">
         <v>2015</v>
       </c>
-      <c r="C137" s="4">
-        <v>96</v>
+      <c r="C137" s="20">
+        <v>136</v>
       </c>
       <c r="D137" s="5" t="s">
         <v>801</v>
@@ -9290,8 +9329,8 @@
       <c r="B138" s="3">
         <v>2015</v>
       </c>
-      <c r="C138" s="4">
-        <v>97</v>
+      <c r="C138" s="20">
+        <v>137</v>
       </c>
       <c r="D138" s="5" t="s">
         <v>807</v>
@@ -9332,8 +9371,8 @@
       <c r="B139" s="3">
         <v>2015</v>
       </c>
-      <c r="C139" s="4">
-        <v>98</v>
+      <c r="C139" s="20">
+        <v>138</v>
       </c>
       <c r="D139" s="5" t="s">
         <v>813</v>
@@ -9374,8 +9413,8 @@
       <c r="B140" s="3">
         <v>2015</v>
       </c>
-      <c r="C140" s="4">
-        <v>99</v>
+      <c r="C140" s="20">
+        <v>139</v>
       </c>
       <c r="D140" s="5" t="s">
         <v>819</v>
@@ -9416,8 +9455,8 @@
       <c r="B141" s="3">
         <v>2015</v>
       </c>
-      <c r="C141" s="4">
-        <v>100</v>
+      <c r="C141" s="20">
+        <v>140</v>
       </c>
       <c r="D141" s="5" t="s">
         <v>825</v>
@@ -9458,8 +9497,8 @@
       <c r="B142" s="3">
         <v>2015</v>
       </c>
-      <c r="C142" s="4">
-        <v>101</v>
+      <c r="C142" s="20">
+        <v>141</v>
       </c>
       <c r="D142" s="5" t="s">
         <v>831</v>
@@ -9500,8 +9539,8 @@
       <c r="B143" s="3">
         <v>2015</v>
       </c>
-      <c r="C143" s="4">
-        <v>102</v>
+      <c r="C143" s="20">
+        <v>142</v>
       </c>
       <c r="D143" s="5" t="s">
         <v>834</v>
@@ -9542,8 +9581,8 @@
       <c r="B144" s="3">
         <v>2015</v>
       </c>
-      <c r="C144" s="4">
-        <v>103</v>
+      <c r="C144" s="20">
+        <v>143</v>
       </c>
       <c r="D144" s="5" t="s">
         <v>840</v>
@@ -9584,8 +9623,8 @@
       <c r="B145" s="3">
         <v>2015</v>
       </c>
-      <c r="C145" s="4">
-        <v>104</v>
+      <c r="C145" s="20">
+        <v>144</v>
       </c>
       <c r="D145" s="5" t="s">
         <v>845</v>
@@ -9626,8 +9665,8 @@
       <c r="B146" s="3">
         <v>2015</v>
       </c>
-      <c r="C146" s="4">
-        <v>105</v>
+      <c r="C146" s="20">
+        <v>145</v>
       </c>
       <c r="D146" s="5" t="s">
         <v>851</v>
@@ -9668,8 +9707,8 @@
       <c r="B147" s="3">
         <v>2015</v>
       </c>
-      <c r="C147" s="4">
-        <v>106</v>
+      <c r="C147" s="20">
+        <v>146</v>
       </c>
       <c r="D147" s="5" t="s">
         <v>857</v>
@@ -9710,8 +9749,8 @@
       <c r="B148" s="3">
         <v>2015</v>
       </c>
-      <c r="C148" s="4">
-        <v>107</v>
+      <c r="C148" s="20">
+        <v>147</v>
       </c>
       <c r="D148" s="5" t="s">
         <v>863</v>
@@ -9752,8 +9791,8 @@
       <c r="B149" s="3">
         <v>2015</v>
       </c>
-      <c r="C149" s="4">
-        <v>108</v>
+      <c r="C149" s="20">
+        <v>148</v>
       </c>
       <c r="D149" s="5" t="s">
         <v>869</v>
@@ -9794,8 +9833,8 @@
       <c r="B150" s="3">
         <v>2015</v>
       </c>
-      <c r="C150" s="4">
-        <v>109</v>
+      <c r="C150" s="20">
+        <v>149</v>
       </c>
       <c r="D150" s="5" t="s">
         <v>874</v>
@@ -9836,8 +9875,8 @@
       <c r="B151" s="3">
         <v>2015</v>
       </c>
-      <c r="C151" s="4">
-        <v>110</v>
+      <c r="C151" s="20">
+        <v>150</v>
       </c>
       <c r="D151" s="5" t="s">
         <v>880</v>
@@ -9878,8 +9917,8 @@
       <c r="B152" s="3">
         <v>2015</v>
       </c>
-      <c r="C152" s="4">
-        <v>111</v>
+      <c r="C152" s="20">
+        <v>151</v>
       </c>
       <c r="D152" s="5" t="s">
         <v>886</v>
@@ -9920,8 +9959,8 @@
       <c r="B153" s="3">
         <v>2015</v>
       </c>
-      <c r="C153" s="4">
-        <v>112</v>
+      <c r="C153" s="20">
+        <v>152</v>
       </c>
       <c r="D153" s="5" t="s">
         <v>892</v>
@@ -9962,8 +10001,8 @@
       <c r="B154" s="3">
         <v>2015</v>
       </c>
-      <c r="C154" s="4">
-        <v>113</v>
+      <c r="C154" s="20">
+        <v>153</v>
       </c>
       <c r="D154" s="5" t="s">
         <v>894</v>
@@ -10004,8 +10043,8 @@
       <c r="B155" s="3">
         <v>2015</v>
       </c>
-      <c r="C155" s="4">
-        <v>114</v>
+      <c r="C155" s="20">
+        <v>154</v>
       </c>
       <c r="D155" s="5" t="s">
         <v>900</v>
@@ -10046,8 +10085,8 @@
       <c r="B156" s="3">
         <v>2015</v>
       </c>
-      <c r="C156" s="4">
-        <v>115</v>
+      <c r="C156" s="20">
+        <v>155</v>
       </c>
       <c r="D156" s="5" t="s">
         <v>906</v>
@@ -10088,8 +10127,8 @@
       <c r="B157" s="3">
         <v>2015</v>
       </c>
-      <c r="C157" s="4">
-        <v>116</v>
+      <c r="C157" s="20">
+        <v>156</v>
       </c>
       <c r="D157" s="5" t="s">
         <v>912</v>
@@ -10130,8 +10169,8 @@
       <c r="B158" s="3">
         <v>2015</v>
       </c>
-      <c r="C158" s="4">
-        <v>119</v>
+      <c r="C158" s="20">
+        <v>157</v>
       </c>
       <c r="D158" s="5" t="s">
         <v>918</v>
@@ -10181,8 +10220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S153"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10251,8 +10290,8 @@
       <c r="B2" s="3">
         <v>2016</v>
       </c>
-      <c r="C2" s="4">
-        <v>101</v>
+      <c r="C2" s="19">
+        <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>61</v>
@@ -10297,8 +10336,8 @@
       <c r="B3" s="3">
         <v>2016</v>
       </c>
-      <c r="C3" s="4">
-        <v>100</v>
+      <c r="C3" s="20">
+        <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>68</v>
@@ -10343,8 +10382,8 @@
       <c r="B4" s="3">
         <v>2016</v>
       </c>
-      <c r="C4" s="4">
-        <v>99</v>
+      <c r="C4" s="20">
+        <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>74</v>
@@ -10389,8 +10428,8 @@
       <c r="B5" s="3">
         <v>2016</v>
       </c>
-      <c r="C5" s="4">
-        <v>97</v>
+      <c r="C5" s="20">
+        <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>81</v>
@@ -10435,8 +10474,8 @@
       <c r="B6" s="3">
         <v>2016</v>
       </c>
-      <c r="C6" s="4">
-        <v>95</v>
+      <c r="C6" s="20">
+        <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>87</v>
@@ -10481,8 +10520,8 @@
       <c r="B7" s="3">
         <v>2016</v>
       </c>
-      <c r="C7" s="4">
-        <v>81</v>
+      <c r="C7" s="20">
+        <v>6</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>90</v>
@@ -10527,8 +10566,8 @@
       <c r="B8" s="3">
         <v>2016</v>
       </c>
-      <c r="C8" s="4">
-        <v>78</v>
+      <c r="C8" s="20">
+        <v>7</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>96</v>
@@ -10573,8 +10612,8 @@
       <c r="B9" s="3">
         <v>2016</v>
       </c>
-      <c r="C9" s="4">
-        <v>4</v>
+      <c r="C9" s="20">
+        <v>8</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>98</v>
@@ -10619,8 +10658,8 @@
       <c r="B10" s="3">
         <v>2015</v>
       </c>
-      <c r="C10" s="4">
-        <v>3</v>
+      <c r="C10" s="20">
+        <v>9</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>105</v>
@@ -10665,8 +10704,8 @@
       <c r="B11" s="3">
         <v>2015</v>
       </c>
-      <c r="C11" s="4">
-        <v>32</v>
+      <c r="C11" s="20">
+        <v>10</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>108</v>
@@ -10707,8 +10746,8 @@
       <c r="B12" s="3">
         <v>2015</v>
       </c>
-      <c r="C12" s="4">
-        <v>40</v>
+      <c r="C12" s="20">
+        <v>11</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>114</v>
@@ -10749,8 +10788,8 @@
       <c r="B13" s="3">
         <v>2015</v>
       </c>
-      <c r="C13" s="4">
-        <v>42</v>
+      <c r="C13" s="20">
+        <v>12</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>120</v>
@@ -10791,8 +10830,8 @@
       <c r="B14" s="3">
         <v>2016</v>
       </c>
-      <c r="C14" s="4">
-        <v>119</v>
+      <c r="C14" s="20">
+        <v>13</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>12</v>
@@ -10833,8 +10872,8 @@
       <c r="B15" s="3">
         <v>2016</v>
       </c>
-      <c r="C15" s="4">
-        <v>118</v>
+      <c r="C15" s="20">
+        <v>14</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>19</v>
@@ -10875,8 +10914,8 @@
       <c r="B16" s="3">
         <v>2016</v>
       </c>
-      <c r="C16" s="4">
-        <v>112</v>
+      <c r="C16" s="20">
+        <v>15</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>25</v>
@@ -10917,8 +10956,8 @@
       <c r="B17" s="3">
         <v>2016</v>
       </c>
-      <c r="C17" s="4">
-        <v>108</v>
+      <c r="C17" s="20">
+        <v>16</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>32</v>
@@ -10959,8 +10998,8 @@
       <c r="B18" s="3">
         <v>2016</v>
       </c>
-      <c r="C18" s="4">
-        <v>105</v>
+      <c r="C18" s="20">
+        <v>17</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>38</v>
@@ -11001,8 +11040,8 @@
       <c r="B19" s="3">
         <v>2016</v>
       </c>
-      <c r="C19" s="4">
-        <v>104</v>
+      <c r="C19" s="20">
+        <v>18</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>44</v>
@@ -11043,8 +11082,8 @@
       <c r="B20" s="3">
         <v>2016</v>
       </c>
-      <c r="C20" s="4">
-        <v>103</v>
+      <c r="C20" s="20">
+        <v>19</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>51</v>
@@ -11085,8 +11124,8 @@
       <c r="B21" s="3">
         <v>2016</v>
       </c>
-      <c r="C21" s="4">
-        <v>102</v>
+      <c r="C21" s="20">
+        <v>20</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>57</v>
@@ -11127,8 +11166,8 @@
       <c r="B22" s="3">
         <v>2015</v>
       </c>
-      <c r="C22" s="4">
-        <v>66</v>
+      <c r="C22" s="20">
+        <v>21</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>126</v>
@@ -11169,8 +11208,8 @@
       <c r="B23" s="3">
         <v>2015</v>
       </c>
-      <c r="C23" s="4">
-        <v>67</v>
+      <c r="C23" s="20">
+        <v>22</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>132</v>
@@ -11211,8 +11250,8 @@
       <c r="B24" s="3">
         <v>2015</v>
       </c>
-      <c r="C24" s="4">
-        <v>76</v>
+      <c r="C24" s="20">
+        <v>23</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>138</v>
@@ -11253,8 +11292,8 @@
       <c r="B25" s="3">
         <v>2015</v>
       </c>
-      <c r="C25" s="4">
-        <v>77</v>
+      <c r="C25" s="20">
+        <v>24</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>144</v>
@@ -11295,8 +11334,8 @@
       <c r="B26" s="3">
         <v>2015</v>
       </c>
-      <c r="C26" s="4">
-        <v>78</v>
+      <c r="C26" s="20">
+        <v>25</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>150</v>
@@ -11337,8 +11376,8 @@
       <c r="B27" s="3">
         <v>2015</v>
       </c>
-      <c r="C27" s="4">
-        <v>79</v>
+      <c r="C27" s="19">
+        <v>26</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>156</v>
@@ -11379,8 +11418,8 @@
       <c r="B28" s="3">
         <v>2015</v>
       </c>
-      <c r="C28" s="4">
-        <v>80</v>
+      <c r="C28" s="20">
+        <v>27</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>162</v>
@@ -11421,8 +11460,8 @@
       <c r="B29" s="3">
         <v>2015</v>
       </c>
-      <c r="C29" s="4">
-        <v>81</v>
+      <c r="C29" s="20">
+        <v>28</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>168</v>
@@ -11463,8 +11502,8 @@
       <c r="B30" s="3">
         <v>2015</v>
       </c>
-      <c r="C30" s="4">
-        <v>82</v>
+      <c r="C30" s="20">
+        <v>29</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>174</v>
@@ -11505,8 +11544,8 @@
       <c r="B31" s="3">
         <v>2015</v>
       </c>
-      <c r="C31" s="4">
-        <v>83</v>
+      <c r="C31" s="20">
+        <v>30</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>180</v>
@@ -11547,8 +11586,8 @@
       <c r="B32" s="3">
         <v>2015</v>
       </c>
-      <c r="C32" s="4">
-        <v>84</v>
+      <c r="C32" s="20">
+        <v>31</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>186</v>
@@ -11589,8 +11628,8 @@
       <c r="B33" s="3">
         <v>2015</v>
       </c>
-      <c r="C33" s="4">
-        <v>85</v>
+      <c r="C33" s="20">
+        <v>32</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>192</v>
@@ -11631,8 +11670,8 @@
       <c r="B34" s="3">
         <v>2015</v>
       </c>
-      <c r="C34" s="4">
-        <v>86</v>
+      <c r="C34" s="20">
+        <v>33</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>198</v>
@@ -11673,8 +11712,8 @@
       <c r="B35" s="3">
         <v>2015</v>
       </c>
-      <c r="C35" s="4">
-        <v>87</v>
+      <c r="C35" s="20">
+        <v>34</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>204</v>
@@ -11715,8 +11754,8 @@
       <c r="B36" s="3">
         <v>2015</v>
       </c>
-      <c r="C36" s="4">
-        <v>88</v>
+      <c r="C36" s="20">
+        <v>35</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>210</v>
@@ -11757,8 +11796,8 @@
       <c r="B37" s="3">
         <v>2015</v>
       </c>
-      <c r="C37" s="4">
-        <v>89</v>
+      <c r="C37" s="20">
+        <v>36</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>216</v>
@@ -11799,8 +11838,8 @@
       <c r="B38" s="3">
         <v>2015</v>
       </c>
-      <c r="C38" s="4">
-        <v>90</v>
+      <c r="C38" s="20">
+        <v>37</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>222</v>
@@ -11841,8 +11880,8 @@
       <c r="B39" s="3">
         <v>2015</v>
       </c>
-      <c r="C39" s="4">
-        <v>91</v>
+      <c r="C39" s="20">
+        <v>38</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>224</v>
@@ -11883,8 +11922,8 @@
       <c r="B40" s="3">
         <v>2015</v>
       </c>
-      <c r="C40" s="4">
-        <v>92</v>
+      <c r="C40" s="20">
+        <v>39</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>230</v>
@@ -11925,8 +11964,8 @@
       <c r="B41" s="3">
         <v>2015</v>
       </c>
-      <c r="C41" s="4">
-        <v>93</v>
+      <c r="C41" s="20">
+        <v>40</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>236</v>
@@ -11967,8 +12006,8 @@
       <c r="B42" s="3">
         <v>2015</v>
       </c>
-      <c r="C42" s="4">
-        <v>94</v>
+      <c r="C42" s="20">
+        <v>41</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>242</v>
@@ -12009,8 +12048,8 @@
       <c r="B43" s="3">
         <v>2015</v>
       </c>
-      <c r="C43" s="4">
-        <v>95</v>
+      <c r="C43" s="20">
+        <v>42</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>248</v>
@@ -12051,8 +12090,8 @@
       <c r="B44" s="3">
         <v>2015</v>
       </c>
-      <c r="C44" s="4">
-        <v>96</v>
+      <c r="C44" s="20">
+        <v>43</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>254</v>
@@ -12093,8 +12132,8 @@
       <c r="B45" s="3">
         <v>2015</v>
       </c>
-      <c r="C45" s="4">
-        <v>97</v>
+      <c r="C45" s="20">
+        <v>44</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>260</v>
@@ -12135,8 +12174,8 @@
       <c r="B46" s="3">
         <v>2015</v>
       </c>
-      <c r="C46" s="4">
-        <v>98</v>
+      <c r="C46" s="20">
+        <v>45</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>267</v>
@@ -12177,8 +12216,8 @@
       <c r="B47" s="3">
         <v>2015</v>
       </c>
-      <c r="C47" s="4">
-        <v>99</v>
+      <c r="C47" s="20">
+        <v>46</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>273</v>
@@ -12219,8 +12258,8 @@
       <c r="B48" s="3">
         <v>2015</v>
       </c>
-      <c r="C48" s="4">
-        <v>100</v>
+      <c r="C48" s="20">
+        <v>47</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>279</v>
@@ -12261,8 +12300,8 @@
       <c r="B49" s="3">
         <v>2015</v>
       </c>
-      <c r="C49" s="4">
-        <v>104</v>
+      <c r="C49" s="20">
+        <v>48</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>285</v>
@@ -12303,8 +12342,8 @@
       <c r="B50" s="3">
         <v>2015</v>
       </c>
-      <c r="C50" s="4">
-        <v>1</v>
+      <c r="C50" s="20">
+        <v>49</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>292</v>
@@ -12345,8 +12384,8 @@
       <c r="B51" s="3">
         <v>2015</v>
       </c>
-      <c r="C51" s="4">
-        <v>2</v>
+      <c r="C51" s="20">
+        <v>50</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>298</v>
@@ -12387,8 +12426,8 @@
       <c r="B52" s="3">
         <v>2015</v>
       </c>
-      <c r="C52" s="4">
-        <v>3</v>
+      <c r="C52" s="19">
+        <v>51</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>304</v>
@@ -12429,8 +12468,8 @@
       <c r="B53" s="3">
         <v>2015</v>
       </c>
-      <c r="C53" s="4">
-        <v>4</v>
+      <c r="C53" s="20">
+        <v>52</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>310</v>
@@ -12471,8 +12510,8 @@
       <c r="B54" s="3">
         <v>2015</v>
       </c>
-      <c r="C54" s="4">
-        <v>5</v>
+      <c r="C54" s="20">
+        <v>53</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>316</v>
@@ -12513,8 +12552,8 @@
       <c r="B55" s="3">
         <v>2015</v>
       </c>
-      <c r="C55" s="4">
-        <v>13</v>
+      <c r="C55" s="20">
+        <v>54</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>322</v>
@@ -12555,8 +12594,8 @@
       <c r="B56" s="3">
         <v>2015</v>
       </c>
-      <c r="C56" s="4">
-        <v>96</v>
+      <c r="C56" s="20">
+        <v>55</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>328</v>
@@ -12597,8 +12636,8 @@
       <c r="B57" s="3">
         <v>2015</v>
       </c>
-      <c r="C57" s="4">
-        <v>97</v>
+      <c r="C57" s="20">
+        <v>56</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>334</v>
@@ -12639,8 +12678,8 @@
       <c r="B58" s="3">
         <v>2015</v>
       </c>
-      <c r="C58" s="4">
-        <v>98</v>
+      <c r="C58" s="20">
+        <v>57</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>340</v>
@@ -12681,8 +12720,8 @@
       <c r="B59" s="3">
         <v>2015</v>
       </c>
-      <c r="C59" s="4">
-        <v>99</v>
+      <c r="C59" s="20">
+        <v>58</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>346</v>
@@ -12723,8 +12762,8 @@
       <c r="B60" s="3">
         <v>2015</v>
       </c>
-      <c r="C60" s="4">
-        <v>100</v>
+      <c r="C60" s="20">
+        <v>59</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>352</v>
@@ -12765,8 +12804,8 @@
       <c r="B61" s="3">
         <v>2015</v>
       </c>
-      <c r="C61" s="4">
-        <v>102</v>
+      <c r="C61" s="20">
+        <v>60</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>358</v>
@@ -12807,8 +12846,8 @@
       <c r="B62" s="3">
         <v>2015</v>
       </c>
-      <c r="C62" s="4">
-        <v>103</v>
+      <c r="C62" s="20">
+        <v>61</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>364</v>
@@ -12849,8 +12888,8 @@
       <c r="B63" s="3">
         <v>2015</v>
       </c>
-      <c r="C63" s="4">
-        <v>104</v>
+      <c r="C63" s="20">
+        <v>62</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>370</v>
@@ -12891,8 +12930,8 @@
       <c r="B64" s="3">
         <v>2015</v>
       </c>
-      <c r="C64" s="4">
-        <v>105</v>
+      <c r="C64" s="20">
+        <v>63</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>376</v>
@@ -12933,8 +12972,8 @@
       <c r="B65" s="3">
         <v>2015</v>
       </c>
-      <c r="C65" s="4">
-        <v>106</v>
+      <c r="C65" s="20">
+        <v>64</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>376</v>
@@ -12975,8 +13014,8 @@
       <c r="B66" s="3">
         <v>2015</v>
       </c>
-      <c r="C66" s="4">
-        <v>109</v>
+      <c r="C66" s="20">
+        <v>65</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>387</v>
@@ -13017,8 +13056,8 @@
       <c r="B67" s="3">
         <v>2015</v>
       </c>
-      <c r="C67" s="4">
-        <v>110</v>
+      <c r="C67" s="20">
+        <v>66</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>393</v>
@@ -13059,8 +13098,8 @@
       <c r="B68" s="3">
         <v>2015</v>
       </c>
-      <c r="C68" s="4">
-        <v>111</v>
+      <c r="C68" s="20">
+        <v>67</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>399</v>
@@ -13101,8 +13140,8 @@
       <c r="B69" s="3">
         <v>2015</v>
       </c>
-      <c r="C69" s="4">
-        <v>112</v>
+      <c r="C69" s="20">
+        <v>68</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>376</v>
@@ -13143,8 +13182,8 @@
       <c r="B70" s="3">
         <v>2015</v>
       </c>
-      <c r="C70" s="4">
-        <v>113</v>
+      <c r="C70" s="20">
+        <v>69</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>410</v>
@@ -13185,8 +13224,8 @@
       <c r="B71" s="3">
         <v>2015</v>
       </c>
-      <c r="C71" s="4">
-        <v>115</v>
+      <c r="C71" s="20">
+        <v>70</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>416</v>
@@ -13227,8 +13266,8 @@
       <c r="B72" s="3">
         <v>2015</v>
       </c>
-      <c r="C72" s="4">
-        <v>116</v>
+      <c r="C72" s="20">
+        <v>71</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>376</v>
@@ -13269,8 +13308,8 @@
       <c r="B73" s="3">
         <v>2015</v>
       </c>
-      <c r="C73" s="4">
-        <v>117</v>
+      <c r="C73" s="20">
+        <v>72</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>376</v>
@@ -13311,8 +13350,8 @@
       <c r="B74" s="3">
         <v>2015</v>
       </c>
-      <c r="C74" s="4">
-        <v>119</v>
+      <c r="C74" s="20">
+        <v>73</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>432</v>
@@ -13353,8 +13392,8 @@
       <c r="B75" s="3">
         <v>2015</v>
       </c>
-      <c r="C75" s="4">
-        <v>8</v>
+      <c r="C75" s="20">
+        <v>74</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>439</v>
@@ -13395,8 +13434,8 @@
       <c r="B76" s="3">
         <v>2015</v>
       </c>
-      <c r="C76" s="4">
-        <v>13</v>
+      <c r="C76" s="20">
+        <v>75</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>445</v>
@@ -13437,8 +13476,8 @@
       <c r="B77" s="3">
         <v>2015</v>
       </c>
-      <c r="C77" s="4">
-        <v>17</v>
+      <c r="C77" s="19">
+        <v>76</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>451</v>
@@ -13479,8 +13518,8 @@
       <c r="B78" s="3">
         <v>2015</v>
       </c>
-      <c r="C78" s="4">
-        <v>19</v>
+      <c r="C78" s="20">
+        <v>77</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>457</v>
@@ -13521,8 +13560,8 @@
       <c r="B79" s="3">
         <v>2015</v>
       </c>
-      <c r="C79" s="4">
-        <v>24</v>
+      <c r="C79" s="20">
+        <v>78</v>
       </c>
       <c r="D79" s="5" t="s">
         <v>463</v>
@@ -13563,8 +13602,8 @@
       <c r="B80" s="3">
         <v>2015</v>
       </c>
-      <c r="C80" s="4">
-        <v>37</v>
+      <c r="C80" s="20">
+        <v>79</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>465</v>
@@ -13605,8 +13644,8 @@
       <c r="B81" s="3">
         <v>2015</v>
       </c>
-      <c r="C81" s="4">
-        <v>39</v>
+      <c r="C81" s="20">
+        <v>80</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>471</v>
@@ -13647,8 +13686,8 @@
       <c r="B82" s="3">
         <v>2015</v>
       </c>
-      <c r="C82" s="4">
-        <v>41</v>
+      <c r="C82" s="20">
+        <v>81</v>
       </c>
       <c r="D82" s="5" t="s">
         <v>477</v>
@@ -13689,8 +13728,8 @@
       <c r="B83" s="3">
         <v>2015</v>
       </c>
-      <c r="C83" s="4">
-        <v>42</v>
+      <c r="C83" s="20">
+        <v>82</v>
       </c>
       <c r="D83" s="5" t="s">
         <v>483</v>
@@ -13731,8 +13770,8 @@
       <c r="B84" s="3">
         <v>2015</v>
       </c>
-      <c r="C84" s="4">
-        <v>43</v>
+      <c r="C84" s="20">
+        <v>83</v>
       </c>
       <c r="D84" s="5" t="s">
         <v>485</v>
@@ -13773,8 +13812,8 @@
       <c r="B85" s="3">
         <v>2015</v>
       </c>
-      <c r="C85" s="4">
-        <v>52</v>
+      <c r="C85" s="20">
+        <v>84</v>
       </c>
       <c r="D85" s="5" t="s">
         <v>491</v>
@@ -13815,8 +13854,8 @@
       <c r="B86" s="3">
         <v>2015</v>
       </c>
-      <c r="C86" s="4">
-        <v>53</v>
+      <c r="C86" s="20">
+        <v>85</v>
       </c>
       <c r="D86" s="5" t="s">
         <v>497</v>
@@ -13857,8 +13896,8 @@
       <c r="B87" s="3">
         <v>2015</v>
       </c>
-      <c r="C87" s="4">
-        <v>63</v>
+      <c r="C87" s="20">
+        <v>86</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>502</v>
@@ -13899,8 +13938,8 @@
       <c r="B88" s="3">
         <v>2015</v>
       </c>
-      <c r="C88" s="4">
-        <v>65</v>
+      <c r="C88" s="20">
+        <v>87</v>
       </c>
       <c r="D88" s="5" t="s">
         <v>508</v>
@@ -13941,8 +13980,8 @@
       <c r="B89" s="3">
         <v>2015</v>
       </c>
-      <c r="C89" s="4">
-        <v>7</v>
+      <c r="C89" s="20">
+        <v>88</v>
       </c>
       <c r="D89" s="5" t="s">
         <v>514</v>
@@ -13983,8 +14022,8 @@
       <c r="B90" s="3">
         <v>2015</v>
       </c>
-      <c r="C90" s="4">
-        <v>69</v>
+      <c r="C90" s="20">
+        <v>89</v>
       </c>
       <c r="D90" s="5" t="s">
         <v>520</v>
@@ -14025,8 +14064,8 @@
       <c r="B91" s="3">
         <v>2015</v>
       </c>
-      <c r="C91" s="4">
-        <v>91</v>
+      <c r="C91" s="20">
+        <v>90</v>
       </c>
       <c r="D91" s="5" t="s">
         <v>526</v>
@@ -14067,8 +14106,8 @@
       <c r="B92" s="3">
         <v>2015</v>
       </c>
-      <c r="C92" s="4">
-        <v>92</v>
+      <c r="C92" s="20">
+        <v>91</v>
       </c>
       <c r="D92" s="5" t="s">
         <v>532</v>
@@ -14109,8 +14148,8 @@
       <c r="B93" s="3">
         <v>2015</v>
       </c>
-      <c r="C93" s="4">
-        <v>93</v>
+      <c r="C93" s="20">
+        <v>92</v>
       </c>
       <c r="D93" s="5" t="s">
         <v>538</v>
@@ -14151,8 +14190,8 @@
       <c r="B94" s="3">
         <v>2015</v>
       </c>
-      <c r="C94" s="4">
-        <v>96</v>
+      <c r="C94" s="20">
+        <v>93</v>
       </c>
       <c r="D94" s="5" t="s">
         <v>544</v>
@@ -14193,8 +14232,8 @@
       <c r="B95" s="3">
         <v>2015</v>
       </c>
-      <c r="C95" s="4">
-        <v>99</v>
+      <c r="C95" s="20">
+        <v>94</v>
       </c>
       <c r="D95" s="5" t="s">
         <v>550</v>
@@ -14235,8 +14274,8 @@
       <c r="B96" s="3">
         <v>2015</v>
       </c>
-      <c r="C96" s="4">
-        <v>113</v>
+      <c r="C96" s="20">
+        <v>95</v>
       </c>
       <c r="D96" s="5" t="s">
         <v>556</v>
@@ -14277,8 +14316,8 @@
       <c r="B97" s="3">
         <v>2015</v>
       </c>
-      <c r="C97" s="4">
-        <v>1</v>
+      <c r="C97" s="20">
+        <v>96</v>
       </c>
       <c r="D97" s="7" t="s">
         <v>563</v>
@@ -14319,8 +14358,8 @@
       <c r="B98" s="3">
         <v>2015</v>
       </c>
-      <c r="C98" s="4">
-        <v>2</v>
+      <c r="C98" s="20">
+        <v>97</v>
       </c>
       <c r="D98" s="7" t="s">
         <v>569</v>
@@ -14361,8 +14400,8 @@
       <c r="B99" s="3">
         <v>2015</v>
       </c>
-      <c r="C99" s="4">
-        <v>3</v>
+      <c r="C99" s="20">
+        <v>98</v>
       </c>
       <c r="D99" s="7" t="s">
         <v>575</v>
@@ -14403,8 +14442,8 @@
       <c r="B100" s="3">
         <v>2015</v>
       </c>
-      <c r="C100" s="4">
-        <v>4</v>
+      <c r="C100" s="20">
+        <v>99</v>
       </c>
       <c r="D100" s="7" t="s">
         <v>581</v>
@@ -14445,8 +14484,8 @@
       <c r="B101" s="3">
         <v>2015</v>
       </c>
-      <c r="C101" s="4">
-        <v>5</v>
+      <c r="C101" s="20">
+        <v>100</v>
       </c>
       <c r="D101" s="7" t="s">
         <v>587</v>
@@ -14487,8 +14526,8 @@
       <c r="B102" s="3">
         <v>2015</v>
       </c>
-      <c r="C102" s="4">
-        <v>6</v>
+      <c r="C102" s="19">
+        <v>101</v>
       </c>
       <c r="D102" s="7" t="s">
         <v>593</v>
@@ -14529,8 +14568,8 @@
       <c r="B103" s="3">
         <v>2015</v>
       </c>
-      <c r="C103" s="4">
-        <v>7</v>
+      <c r="C103" s="20">
+        <v>102</v>
       </c>
       <c r="D103" s="7" t="s">
         <v>599</v>
@@ -14571,8 +14610,8 @@
       <c r="B104" s="3">
         <v>2015</v>
       </c>
-      <c r="C104" s="4">
-        <v>8</v>
+      <c r="C104" s="20">
+        <v>103</v>
       </c>
       <c r="D104" s="7" t="s">
         <v>605</v>
@@ -14613,8 +14652,8 @@
       <c r="B105" s="3">
         <v>2015</v>
       </c>
-      <c r="C105" s="4">
-        <v>9</v>
+      <c r="C105" s="20">
+        <v>104</v>
       </c>
       <c r="D105" s="7" t="s">
         <v>611</v>
@@ -14655,8 +14694,8 @@
       <c r="B106" s="3">
         <v>2015</v>
       </c>
-      <c r="C106" s="4">
-        <v>10</v>
+      <c r="C106" s="20">
+        <v>105</v>
       </c>
       <c r="D106" s="7" t="s">
         <v>617</v>
@@ -14697,8 +14736,8 @@
       <c r="B107" s="3">
         <v>2015</v>
       </c>
-      <c r="C107" s="4">
-        <v>11</v>
+      <c r="C107" s="20">
+        <v>106</v>
       </c>
       <c r="D107" s="7" t="s">
         <v>623</v>
@@ -14739,8 +14778,8 @@
       <c r="B108" s="3">
         <v>2015</v>
       </c>
-      <c r="C108" s="4">
-        <v>12</v>
+      <c r="C108" s="20">
+        <v>107</v>
       </c>
       <c r="D108" s="7" t="s">
         <v>629</v>
@@ -14781,8 +14820,8 @@
       <c r="B109" s="3">
         <v>2015</v>
       </c>
-      <c r="C109" s="4">
-        <v>112</v>
+      <c r="C109" s="20">
+        <v>108</v>
       </c>
       <c r="D109" s="5" t="s">
         <v>636</v>
@@ -14823,8 +14862,8 @@
       <c r="B110" s="3">
         <v>2015</v>
       </c>
-      <c r="C110" s="4">
-        <v>54</v>
+      <c r="C110" s="20">
+        <v>109</v>
       </c>
       <c r="D110" s="5" t="s">
         <v>643</v>
@@ -14865,8 +14904,8 @@
       <c r="B111" s="3">
         <v>2015</v>
       </c>
-      <c r="C111" s="4">
-        <v>55</v>
+      <c r="C111" s="20">
+        <v>110</v>
       </c>
       <c r="D111" s="5" t="s">
         <v>649</v>
@@ -14907,8 +14946,8 @@
       <c r="B112" s="3">
         <v>2015</v>
       </c>
-      <c r="C112" s="4">
-        <v>56</v>
+      <c r="C112" s="20">
+        <v>111</v>
       </c>
       <c r="D112" s="5" t="s">
         <v>655</v>
@@ -14949,8 +14988,8 @@
       <c r="B113" s="3">
         <v>2015</v>
       </c>
-      <c r="C113" s="4">
-        <v>57</v>
+      <c r="C113" s="20">
+        <v>112</v>
       </c>
       <c r="D113" s="5" t="s">
         <v>661</v>
@@ -14991,8 +15030,8 @@
       <c r="B114" s="3">
         <v>2015</v>
       </c>
-      <c r="C114" s="4">
-        <v>58</v>
+      <c r="C114" s="20">
+        <v>113</v>
       </c>
       <c r="D114" s="5" t="s">
         <v>667</v>
@@ -15033,8 +15072,8 @@
       <c r="B115" s="3">
         <v>2015</v>
       </c>
-      <c r="C115" s="4">
-        <v>59</v>
+      <c r="C115" s="20">
+        <v>114</v>
       </c>
       <c r="D115" s="5" t="s">
         <v>673</v>
@@ -15075,8 +15114,8 @@
       <c r="B116" s="3">
         <v>2015</v>
       </c>
-      <c r="C116" s="4">
-        <v>60</v>
+      <c r="C116" s="20">
+        <v>115</v>
       </c>
       <c r="D116" s="5" t="s">
         <v>679</v>
@@ -15117,8 +15156,8 @@
       <c r="B117" s="3">
         <v>2015</v>
       </c>
-      <c r="C117" s="4">
-        <v>61</v>
+      <c r="C117" s="20">
+        <v>116</v>
       </c>
       <c r="D117" s="5" t="s">
         <v>685</v>
@@ -15159,8 +15198,8 @@
       <c r="B118" s="3">
         <v>2015</v>
       </c>
-      <c r="C118" s="4">
-        <v>62</v>
+      <c r="C118" s="20">
+        <v>117</v>
       </c>
       <c r="D118" s="5" t="s">
         <v>691</v>
@@ -15201,8 +15240,8 @@
       <c r="B119" s="3">
         <v>2015</v>
       </c>
-      <c r="C119" s="4">
-        <v>63</v>
+      <c r="C119" s="20">
+        <v>118</v>
       </c>
       <c r="D119" s="5" t="s">
         <v>697</v>
@@ -15243,8 +15282,8 @@
       <c r="B120" s="3">
         <v>2015</v>
       </c>
-      <c r="C120" s="4">
-        <v>64</v>
+      <c r="C120" s="20">
+        <v>119</v>
       </c>
       <c r="D120" s="5" t="s">
         <v>703</v>
@@ -15285,8 +15324,8 @@
       <c r="B121" s="3">
         <v>2015</v>
       </c>
-      <c r="C121" s="4">
-        <v>65</v>
+      <c r="C121" s="20">
+        <v>120</v>
       </c>
       <c r="D121" s="5" t="s">
         <v>709</v>
@@ -15327,8 +15366,8 @@
       <c r="B122" s="3">
         <v>2015</v>
       </c>
-      <c r="C122" s="4">
-        <v>81</v>
+      <c r="C122" s="20">
+        <v>121</v>
       </c>
       <c r="D122" s="5" t="s">
         <v>715</v>
@@ -15369,8 +15408,8 @@
       <c r="B123" s="3">
         <v>2015</v>
       </c>
-      <c r="C123" s="4">
-        <v>82</v>
+      <c r="C123" s="20">
+        <v>122</v>
       </c>
       <c r="D123" s="5" t="s">
         <v>376</v>
@@ -15411,8 +15450,8 @@
       <c r="B124" s="3">
         <v>2015</v>
       </c>
-      <c r="C124" s="4">
-        <v>83</v>
+      <c r="C124" s="20">
+        <v>123</v>
       </c>
       <c r="D124" s="5" t="s">
         <v>726</v>
@@ -15453,8 +15492,8 @@
       <c r="B125" s="3">
         <v>2015</v>
       </c>
-      <c r="C125" s="4">
-        <v>84</v>
+      <c r="C125" s="20">
+        <v>124</v>
       </c>
       <c r="D125" s="5" t="s">
         <v>358</v>
@@ -15495,8 +15534,8 @@
       <c r="B126" s="3">
         <v>2015</v>
       </c>
-      <c r="C126" s="4">
-        <v>85</v>
+      <c r="C126" s="20">
+        <v>125</v>
       </c>
       <c r="D126" s="5" t="s">
         <v>737</v>
@@ -15537,8 +15576,8 @@
       <c r="B127" s="3">
         <v>2015</v>
       </c>
-      <c r="C127" s="4">
-        <v>86</v>
+      <c r="C127" s="19">
+        <v>126</v>
       </c>
       <c r="D127" s="5" t="s">
         <v>743</v>
@@ -15579,8 +15618,8 @@
       <c r="B128" s="3">
         <v>2015</v>
       </c>
-      <c r="C128" s="4">
-        <v>87</v>
+      <c r="C128" s="20">
+        <v>127</v>
       </c>
       <c r="D128" s="5" t="s">
         <v>748</v>
@@ -15621,8 +15660,8 @@
       <c r="B129" s="3">
         <v>2015</v>
       </c>
-      <c r="C129" s="4">
-        <v>88</v>
+      <c r="C129" s="20">
+        <v>128</v>
       </c>
       <c r="D129" s="5" t="s">
         <v>754</v>
@@ -15663,8 +15702,8 @@
       <c r="B130" s="3">
         <v>2015</v>
       </c>
-      <c r="C130" s="4">
-        <v>89</v>
+      <c r="C130" s="20">
+        <v>129</v>
       </c>
       <c r="D130" s="5" t="s">
         <v>760</v>
@@ -15705,8 +15744,8 @@
       <c r="B131" s="3">
         <v>2015</v>
       </c>
-      <c r="C131" s="4">
-        <v>90</v>
+      <c r="C131" s="20">
+        <v>130</v>
       </c>
       <c r="D131" s="5" t="s">
         <v>766</v>
@@ -15747,8 +15786,8 @@
       <c r="B132" s="3">
         <v>2015</v>
       </c>
-      <c r="C132" s="4">
-        <v>91</v>
+      <c r="C132" s="20">
+        <v>131</v>
       </c>
       <c r="D132" s="5" t="s">
         <v>772</v>
@@ -15789,8 +15828,8 @@
       <c r="B133" s="3">
         <v>2015</v>
       </c>
-      <c r="C133" s="4">
-        <v>92</v>
+      <c r="C133" s="20">
+        <v>132</v>
       </c>
       <c r="D133" s="5" t="s">
         <v>778</v>
@@ -15831,8 +15870,8 @@
       <c r="B134" s="3">
         <v>2015</v>
       </c>
-      <c r="C134" s="4">
-        <v>93</v>
+      <c r="C134" s="20">
+        <v>133</v>
       </c>
       <c r="D134" s="5" t="s">
         <v>784</v>
@@ -15873,8 +15912,8 @@
       <c r="B135" s="3">
         <v>2015</v>
       </c>
-      <c r="C135" s="4">
-        <v>94</v>
+      <c r="C135" s="20">
+        <v>134</v>
       </c>
       <c r="D135" s="5" t="s">
         <v>790</v>
@@ -15915,8 +15954,8 @@
       <c r="B136" s="3">
         <v>2015</v>
       </c>
-      <c r="C136" s="4">
-        <v>95</v>
+      <c r="C136" s="20">
+        <v>135</v>
       </c>
       <c r="D136" s="5" t="s">
         <v>796</v>
@@ -15957,8 +15996,8 @@
       <c r="B137" s="3">
         <v>2015</v>
       </c>
-      <c r="C137" s="4">
-        <v>96</v>
+      <c r="C137" s="20">
+        <v>136</v>
       </c>
       <c r="D137" s="5" t="s">
         <v>801</v>
@@ -15999,8 +16038,8 @@
       <c r="B138" s="3">
         <v>2015</v>
       </c>
-      <c r="C138" s="4">
-        <v>97</v>
+      <c r="C138" s="20">
+        <v>137</v>
       </c>
       <c r="D138" s="5" t="s">
         <v>807</v>
@@ -16041,8 +16080,8 @@
       <c r="B139" s="3">
         <v>2015</v>
       </c>
-      <c r="C139" s="4">
-        <v>98</v>
+      <c r="C139" s="20">
+        <v>138</v>
       </c>
       <c r="D139" s="5" t="s">
         <v>813</v>
@@ -16083,8 +16122,8 @@
       <c r="B140" s="3">
         <v>2015</v>
       </c>
-      <c r="C140" s="4">
-        <v>99</v>
+      <c r="C140" s="20">
+        <v>139</v>
       </c>
       <c r="D140" s="5" t="s">
         <v>819</v>
@@ -16125,8 +16164,8 @@
       <c r="B141" s="3">
         <v>2015</v>
       </c>
-      <c r="C141" s="4">
-        <v>100</v>
+      <c r="C141" s="20">
+        <v>140</v>
       </c>
       <c r="D141" s="5" t="s">
         <v>825</v>
@@ -16167,8 +16206,8 @@
       <c r="B142" s="3">
         <v>2015</v>
       </c>
-      <c r="C142" s="4">
-        <v>101</v>
+      <c r="C142" s="20">
+        <v>141</v>
       </c>
       <c r="D142" s="5" t="s">
         <v>831</v>
@@ -16209,8 +16248,8 @@
       <c r="B143" s="3">
         <v>2015</v>
       </c>
-      <c r="C143" s="4">
-        <v>102</v>
+      <c r="C143" s="20">
+        <v>142</v>
       </c>
       <c r="D143" s="5" t="s">
         <v>834</v>
@@ -16251,8 +16290,8 @@
       <c r="B144" s="3">
         <v>2015</v>
       </c>
-      <c r="C144" s="4">
-        <v>103</v>
+      <c r="C144" s="20">
+        <v>143</v>
       </c>
       <c r="D144" s="5" t="s">
         <v>840</v>
@@ -16293,8 +16332,8 @@
       <c r="B145" s="3">
         <v>2015</v>
       </c>
-      <c r="C145" s="4">
-        <v>104</v>
+      <c r="C145" s="20">
+        <v>144</v>
       </c>
       <c r="D145" s="5" t="s">
         <v>845</v>
@@ -16335,8 +16374,8 @@
       <c r="B146" s="3">
         <v>2015</v>
       </c>
-      <c r="C146" s="4">
-        <v>105</v>
+      <c r="C146" s="20">
+        <v>145</v>
       </c>
       <c r="D146" s="5" t="s">
         <v>851</v>
@@ -16377,8 +16416,8 @@
       <c r="B147" s="3">
         <v>2015</v>
       </c>
-      <c r="C147" s="4">
-        <v>106</v>
+      <c r="C147" s="20">
+        <v>146</v>
       </c>
       <c r="D147" s="5" t="s">
         <v>857</v>
@@ -16419,8 +16458,8 @@
       <c r="B148" s="3">
         <v>2015</v>
       </c>
-      <c r="C148" s="4">
-        <v>107</v>
+      <c r="C148" s="20">
+        <v>147</v>
       </c>
       <c r="D148" s="5" t="s">
         <v>863</v>
@@ -16461,8 +16500,8 @@
       <c r="B149" s="3">
         <v>2015</v>
       </c>
-      <c r="C149" s="4">
-        <v>108</v>
+      <c r="C149" s="20">
+        <v>148</v>
       </c>
       <c r="D149" s="5" t="s">
         <v>869</v>
@@ -16503,8 +16542,8 @@
       <c r="B150" s="3">
         <v>2015</v>
       </c>
-      <c r="C150" s="4">
-        <v>109</v>
+      <c r="C150" s="20">
+        <v>149</v>
       </c>
       <c r="D150" s="5" t="s">
         <v>874</v>
@@ -16545,8 +16584,8 @@
       <c r="B151" s="3">
         <v>2015</v>
       </c>
-      <c r="C151" s="4">
-        <v>110</v>
+      <c r="C151" s="20">
+        <v>150</v>
       </c>
       <c r="D151" s="5" t="s">
         <v>880</v>
